--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8011E9-AEDE-41A8-A127-A29ADBC1EFD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA557F-CA12-413A-A414-C768C920260D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="207">
   <si>
     <t>Feature</t>
   </si>
@@ -635,6 +635,15 @@
   </si>
   <si>
     <t>copyright</t>
+  </si>
+  <si>
+    <t>for long run</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Covered</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1103,8 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1136,7 +1145,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1168,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1187,7 +1196,9 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1212,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1224,7 +1235,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1245,7 +1256,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -1268,7 +1279,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1289,7 +1300,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -1310,7 +1321,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -1331,7 +1342,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1">
+    <row r="11" spans="1:9" ht="19.95" hidden="1" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -1350,7 +1361,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1">
+    <row r="12" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
@@ -1369,7 +1380,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
+    <row r="13" spans="1:9" ht="30" hidden="1" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -1390,7 +1401,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1424,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -1453,7 +1464,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -1704,7 +1715,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="9.6" customHeight="1">
+    <row r="30" spans="1:9" ht="9.6" hidden="1" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>56</v>
@@ -1723,7 +1734,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1746,7 +1757,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>60</v>
@@ -1784,7 +1795,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>63</v>
@@ -1843,7 +1854,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
@@ -1862,7 +1873,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>68</v>
@@ -1881,7 +1892,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -1904,7 +1915,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>72</v>
@@ -1942,7 +1953,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>75</v>
@@ -2253,7 +2264,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
@@ -2276,7 +2287,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>97</v>
@@ -2314,7 +2325,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>100</v>
@@ -2369,7 +2380,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
         <v>104</v>
@@ -2405,7 +2416,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
         <v>106</v>
@@ -2521,14 +2532,16 @@
       <c r="H72" s="3"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D73" s="10" t="s">
         <v>11</v>
       </c>
@@ -2542,12 +2555,14 @@
       <c r="H73" s="3"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D74" s="10" t="s">
         <v>11</v>
       </c>
@@ -2561,12 +2576,14 @@
       <c r="H74" s="3"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D75" s="10" t="s">
         <v>11</v>
       </c>
@@ -2597,7 +2614,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
@@ -2618,7 +2635,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
         <v>121</v>
@@ -2658,7 +2675,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>124</v>
@@ -2679,7 +2696,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>126</v>
@@ -2700,7 +2717,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>128</v>
@@ -2721,7 +2738,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>130</v>
@@ -2742,7 +2759,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="1"/>
       <c r="B84" s="5" t="s">
         <v>132</v>
@@ -2782,7 +2799,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>135</v>
@@ -2803,7 +2820,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="1" t="s">
         <v>137</v>
       </c>
@@ -2824,7 +2841,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>139</v>
@@ -2900,7 +2917,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
         <v>145</v>
@@ -2919,7 +2936,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="1:9" ht="12" customHeight="1">
+    <row r="93" spans="1:9" ht="12" hidden="1" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
@@ -3172,7 +3189,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="1" t="s">
         <v>162</v>
       </c>
@@ -3195,7 +3212,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>164</v>
@@ -3328,7 +3345,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
@@ -3368,7 +3385,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>170</v>
@@ -3389,7 +3406,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>171</v>
@@ -3448,7 +3465,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="1"/>
       <c r="B122" s="6" t="s">
         <v>174</v>
@@ -3486,7 +3503,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>176</v>
@@ -3507,7 +3524,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
         <v>177</v>
@@ -3539,7 +3556,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>178</v>
@@ -3581,7 +3598,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="1"/>
       <c r="B129" s="6" t="s">
         <v>190</v>
@@ -3600,7 +3617,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="1"/>
       <c r="B130" s="6" t="s">
         <v>191</v>
@@ -3638,7 +3655,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>193</v>
@@ -3661,7 +3678,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1"/>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C133" s="2"/>
@@ -3680,7 +3697,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1"/>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C134" s="2"/>
@@ -3693,7 +3710,9 @@
       <c r="F134" s="2">
         <v>2</v>
       </c>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="8"/>
     </row>
@@ -3742,6 +3761,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="Completed"/>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA557F-CA12-413A-A414-C768C920260D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F2CD6-0EA0-4434-AFBC-CA281DBB04AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,6 +807,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,12 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1145,7 +1147,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1170,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1212,7 +1214,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1235,7 +1237,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1256,7 +1258,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -1279,7 +1281,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1300,7 +1302,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -1321,7 +1323,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -1342,7 +1344,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="19.95" hidden="1" customHeight="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -1361,7 +1363,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
@@ -1380,7 +1382,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" customHeight="1">
+    <row r="13" spans="1:9" ht="24.6" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -1401,7 +1403,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1426,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -1464,7 +1466,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -1485,7 +1487,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>43</v>
@@ -1504,7 +1506,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>44</v>
@@ -1523,7 +1525,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>45</v>
@@ -1542,7 +1544,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1563,7 +1565,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>48</v>
@@ -1582,7 +1584,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>49</v>
@@ -1601,7 +1603,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>50</v>
@@ -1620,7 +1622,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>51</v>
@@ -1639,7 +1641,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>52</v>
@@ -1658,7 +1660,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>53</v>
@@ -1677,7 +1679,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>54</v>
@@ -1696,7 +1698,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>55</v>
@@ -1715,7 +1717,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="9.6" hidden="1" customHeight="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>56</v>
@@ -1734,7 +1736,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1757,7 +1759,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>60</v>
@@ -1795,7 +1797,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>63</v>
@@ -1816,7 +1818,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>65</v>
@@ -1835,7 +1837,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>66</v>
@@ -1854,7 +1856,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
@@ -1873,7 +1875,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>68</v>
@@ -1892,7 +1894,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -1915,7 +1917,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>72</v>
@@ -1953,7 +1955,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>75</v>
@@ -2027,7 +2029,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
         <v>81</v>
@@ -2084,7 +2086,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>84</v>
@@ -2103,7 +2105,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>85</v>
@@ -2264,7 +2266,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
@@ -2287,7 +2289,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>97</v>
@@ -2325,7 +2327,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>100</v>
@@ -2380,7 +2382,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
         <v>104</v>
@@ -2416,7 +2418,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
         <v>106</v>
@@ -2532,7 +2534,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
@@ -2555,7 +2557,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>115</v>
@@ -2576,7 +2578,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="1:9" hidden="1">
+    <row r="75" spans="1:9">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>116</v>
@@ -2614,7 +2616,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
         <v>121</v>
@@ -2656,7 +2658,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>123</v>
@@ -2675,7 +2677,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>124</v>
@@ -2696,7 +2698,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>126</v>
@@ -2717,7 +2719,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>128</v>
@@ -2738,7 +2740,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>130</v>
@@ -2759,7 +2761,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" s="1"/>
       <c r="B84" s="5" t="s">
         <v>132</v>
@@ -2799,7 +2801,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>135</v>
@@ -2820,7 +2822,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>137</v>
       </c>
@@ -2841,7 +2843,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
         <v>139</v>
@@ -2864,7 +2866,7 @@
       <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C89" s="6"/>
@@ -2917,7 +2919,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
         <v>145</v>
@@ -2936,7 +2938,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="1:9" ht="12" hidden="1" customHeight="1">
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
@@ -3109,7 +3111,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>156</v>
@@ -3189,7 +3191,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>162</v>
       </c>
@@ -3212,7 +3214,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>164</v>
@@ -3345,7 +3347,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
@@ -3385,7 +3387,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>170</v>
@@ -3406,7 +3408,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>171</v>
@@ -3465,7 +3467,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" s="1"/>
       <c r="B122" s="6" t="s">
         <v>174</v>
@@ -3503,7 +3505,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="1:9" hidden="1">
+    <row r="124" spans="1:9">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>176</v>
@@ -3524,7 +3526,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9">
       <c r="A125" s="1"/>
       <c r="B125" s="6" t="s">
         <v>177</v>
@@ -3556,7 +3558,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>178</v>
@@ -3598,7 +3600,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" s="1"/>
       <c r="B129" s="6" t="s">
         <v>190</v>
@@ -3617,7 +3619,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" s="1"/>
       <c r="B130" s="6" t="s">
         <v>191</v>
@@ -3655,7 +3657,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>193</v>
@@ -3760,20 +3762,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Completed"/>
-        <filter val="covered"/>
-        <filter val="Planning-1"/>
-        <filter val="Planning-2"/>
-        <filter val="Planning-3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D138:D143">
     <sortCondition ref="D138"/>
   </sortState>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989F2CD6-0EA0-4434-AFBC-CA281DBB04AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699B1EF-16A1-488E-AF24-492B88A1F0AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,8 +1105,8 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754BB47-DF75-48BD-BD35-19247BC74D58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC11466-04C7-4CFD-B33B-283C3027C5D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
   <si>
     <t>Feature</t>
   </si>
@@ -752,18 +752,43 @@
   </si>
   <si>
     <t>Shutdown, logoff会影响测试</t>
+  </si>
+  <si>
+    <t>kiosk_onoff</t>
+  </si>
+  <si>
+    <t>easyshell_launch</t>
+  </si>
+  <si>
+    <t>wifi_readonly</t>
+  </si>
+  <si>
+    <t>wifi_modify_settings</t>
+  </si>
+  <si>
+    <t>wifi_modify_icon</t>
+  </si>
+  <si>
+    <t>wifi_wpap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -943,22 +968,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,10 +1001,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,10 +1016,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,19 +1032,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,21 +1343,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" style="37" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0.42578125" style="27" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="79.42578125" style="37" customWidth="1"/>
     <col min="8" max="16384" width="9" style="37"/>
   </cols>
@@ -1358,7 +1389,7 @@
       </c>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" customFormat="1" hidden="1">
+    <row r="2" spans="1:9" customFormat="1" ht="210" hidden="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1435,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
         <v>13</v>
@@ -1421,7 +1452,9 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="H4" s="38"/>
       <c r="I4" s="36"/>
     </row>
@@ -1555,7 +1588,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1576,7 +1609,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>28</v>
@@ -1618,7 +1651,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" hidden="1">
+    <row r="14" spans="1:9" customFormat="1" ht="315" hidden="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1695,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="30"/>
       <c r="B16" s="30" t="s">
         <v>36</v>
@@ -1677,7 +1710,9 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="H16" s="38"/>
       <c r="I16" s="36"/>
     </row>
@@ -1702,7 +1737,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" hidden="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>39</v>
@@ -1723,7 +1758,7 @@
       <c r="H18" s="38"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" hidden="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>40</v>
@@ -1744,7 +1779,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>41</v>
@@ -1765,7 +1800,7 @@
       <c r="H20" s="38"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1">
+    <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>42</v>
       </c>
@@ -1788,7 +1823,7 @@
       <c r="H21" s="38"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" hidden="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>44</v>
@@ -1809,7 +1844,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="30" hidden="1">
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="30"/>
       <c r="B23" s="30" t="s">
         <v>45</v>
@@ -1830,7 +1865,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="30" hidden="1">
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="30"/>
       <c r="B24" s="30" t="s">
         <v>46</v>
@@ -1851,7 +1886,7 @@
       <c r="H24" s="38"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="30" hidden="1">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="30"/>
       <c r="B25" s="30" t="s">
         <v>47</v>
@@ -1872,7 +1907,7 @@
       <c r="H25" s="38"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" s="30"/>
       <c r="B26" s="30" t="s">
         <v>48</v>
@@ -1893,7 +1928,7 @@
       <c r="H26" s="38"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
         <v>49</v>
@@ -1914,7 +1949,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="30"/>
       <c r="B28" s="30" t="s">
         <v>50</v>
@@ -1935,7 +1970,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="30" hidden="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>51</v>
@@ -1956,7 +1991,7 @@
       <c r="H29" s="38"/>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" hidden="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>52</v>
@@ -1977,7 +2012,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1" hidden="1">
+    <row r="31" spans="1:9" customFormat="1" ht="90" hidden="1">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2021,7 +2056,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="30"/>
       <c r="B33" s="30" t="s">
         <v>58</v>
@@ -2036,7 +2071,9 @@
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="H33" s="38"/>
       <c r="I33" s="36"/>
     </row>
@@ -2061,7 +2098,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>61</v>
@@ -2082,7 +2119,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="30" hidden="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>62</v>
@@ -2103,7 +2140,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
         <v>63</v>
@@ -2124,7 +2161,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>64</v>
@@ -2145,7 +2182,7 @@
       <c r="H38" s="38"/>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" customFormat="1" hidden="1">
+    <row r="39" spans="1:9" customFormat="1" ht="195" hidden="1">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2189,7 +2226,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
         <v>70</v>
@@ -2231,7 +2268,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="30"/>
       <c r="B43" s="30" t="s">
         <v>73</v>
@@ -2252,7 +2289,7 @@
       <c r="H43" s="38"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="30"/>
       <c r="B44" s="30" t="s">
         <v>74</v>
@@ -2273,7 +2310,7 @@
       <c r="H44" s="38"/>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
         <v>75</v>
@@ -2294,7 +2331,7 @@
       <c r="H45" s="38"/>
       <c r="I45" s="36"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="30" hidden="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>76</v>
@@ -2315,7 +2352,7 @@
       <c r="H46" s="38"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="30"/>
       <c r="B47" s="30" t="s">
         <v>77</v>
@@ -2336,7 +2373,7 @@
       <c r="H47" s="38"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="30"/>
       <c r="B48" s="30" t="s">
         <v>78</v>
@@ -2357,7 +2394,7 @@
       <c r="H48" s="38"/>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>79</v>
@@ -2378,7 +2415,7 @@
       <c r="H49" s="38"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>80</v>
@@ -2399,7 +2436,7 @@
       <c r="H50" s="38"/>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
         <v>81</v>
@@ -2420,7 +2457,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="30"/>
       <c r="B52" s="30" t="s">
         <v>82</v>
@@ -2441,7 +2478,7 @@
       <c r="H52" s="38"/>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="30"/>
       <c r="B53" s="30" t="s">
         <v>83</v>
@@ -2462,7 +2499,7 @@
       <c r="H53" s="38"/>
       <c r="I53" s="36"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
         <v>84</v>
@@ -2483,19 +2520,19 @@
       <c r="H54" s="38"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="30"/>
       <c r="B55" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E55" s="25">
         <v>2</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="30">
         <v>3</v>
       </c>
       <c r="G55" s="40" t="s">
@@ -2504,19 +2541,19 @@
       <c r="H55" s="38"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="30"/>
       <c r="B56" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E56" s="25">
         <v>2</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="30">
         <v>3</v>
       </c>
       <c r="G56" s="40" t="s">
@@ -2525,19 +2562,19 @@
       <c r="H56" s="38"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" s="30"/>
       <c r="B57" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E57" s="25">
         <v>2</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="30">
         <v>2</v>
       </c>
       <c r="G57" s="40" t="s">
@@ -2546,7 +2583,7 @@
       <c r="H57" s="38"/>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
         <v>88</v>
@@ -2567,7 +2604,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" customFormat="1" hidden="1">
+    <row r="59" spans="1:9" customFormat="1" ht="195" hidden="1">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -2611,22 +2648,24 @@
       <c r="H60" s="3"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" s="30"/>
       <c r="B61" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E61" s="24">
         <v>2</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="30">
         <v>0</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="H61" s="38"/>
       <c r="I61" s="36"/>
     </row>
@@ -2651,19 +2690,19 @@
       <c r="H62" s="3"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E63" s="24">
         <v>2</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="30">
         <v>2</v>
       </c>
       <c r="G63" s="40" t="s">
@@ -2672,19 +2711,19 @@
       <c r="H63" s="38"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" s="30"/>
       <c r="B64" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E64" s="24">
         <v>2</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="30">
         <v>2</v>
       </c>
       <c r="G64" s="40" t="s">
@@ -2693,7 +2732,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="36"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
         <v>99</v>
@@ -2714,7 +2753,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="36"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="30" hidden="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
         <v>100</v>
@@ -2735,7 +2774,7 @@
       <c r="H66" s="38"/>
       <c r="I66" s="36"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
         <v>101</v>
@@ -2756,19 +2795,19 @@
       <c r="H67" s="38"/>
       <c r="I67" s="36"/>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="30"/>
       <c r="B68" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E68" s="25">
         <v>2</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="30">
         <v>2</v>
       </c>
       <c r="G68" s="40" t="s">
@@ -2777,19 +2816,19 @@
       <c r="H68" s="38"/>
       <c r="I68" s="36"/>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="30" t="s">
         <v>212</v>
       </c>
       <c r="E69" s="25">
         <v>2</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="30">
         <v>3</v>
       </c>
       <c r="G69" s="40" t="s">
@@ -2798,21 +2837,21 @@
       <c r="H69" s="38"/>
       <c r="I69" s="36"/>
     </row>
-    <row r="70" spans="1:9" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:9" ht="21" customHeight="1">
       <c r="A70" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B70" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E70" s="25">
         <v>2</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="30">
         <v>2</v>
       </c>
       <c r="G70" s="40" t="s">
@@ -2821,19 +2860,19 @@
       <c r="H70" s="38"/>
       <c r="I70" s="36"/>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="30"/>
       <c r="B71" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E71" s="25">
         <v>2</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="30">
         <v>2</v>
       </c>
       <c r="G71" s="40" t="s">
@@ -2842,19 +2881,19 @@
       <c r="H71" s="38"/>
       <c r="I71" s="36"/>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" s="30"/>
       <c r="B72" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E72" s="25">
         <v>2</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="30">
         <v>2</v>
       </c>
       <c r="G72" s="40" t="s">
@@ -2863,7 +2902,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="36"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" hidden="1">
+    <row r="73" spans="1:9" customFormat="1" ht="165" hidden="1">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -2928,26 +2967,26 @@
       <c r="H75" s="3"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" s="30"/>
       <c r="B76" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="40" t="s">
         <v>212</v>
       </c>
       <c r="E76" s="25">
         <v>3</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="30">
         <v>2</v>
       </c>
       <c r="G76" s="39"/>
       <c r="H76" s="38"/>
       <c r="I76" s="36"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" hidden="1">
+    <row r="77" spans="1:9" customFormat="1" ht="270" hidden="1">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -2970,7 +3009,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
         <v>116</v>
@@ -2991,7 +3030,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="36"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
         <v>117</v>
@@ -3096,7 +3135,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
         <v>126</v>
@@ -3117,21 +3156,21 @@
       <c r="H84" s="38"/>
       <c r="I84" s="36"/>
     </row>
-    <row r="85" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="1:9" ht="14.25" customHeight="1">
       <c r="A85" s="30" t="s">
         <v>127</v>
       </c>
       <c r="B85" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="30"/>
       <c r="D85" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E85" s="24">
         <v>2</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="30">
         <v>1</v>
       </c>
       <c r="G85" s="40" t="s">
@@ -3161,21 +3200,21 @@
       <c r="H86" s="3"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="1:9" ht="14.25" customHeight="1">
       <c r="A87" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E87" s="26">
         <v>3</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="30">
         <v>2</v>
       </c>
       <c r="G87" s="40" t="s">
@@ -3184,7 +3223,7 @@
       <c r="H87" s="38"/>
       <c r="I87" s="36"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>133</v>
@@ -3205,7 +3244,7 @@
       <c r="H88" s="38"/>
       <c r="I88" s="36"/>
     </row>
-    <row r="89" spans="1:9" customFormat="1" hidden="1">
+    <row r="89" spans="1:9" customFormat="1" ht="405" hidden="1">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
@@ -3264,7 +3303,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>138</v>
@@ -3285,16 +3324,18 @@
       <c r="H92" s="38"/>
       <c r="I92" s="36"/>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9" ht="18.75" customHeight="1">
       <c r="A93" s="30" t="s">
         <v>139</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="30"/>
+      <c r="C93" s="30" t="s">
+        <v>237</v>
+      </c>
       <c r="D93" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E93" s="32">
         <v>2</v>
@@ -3306,45 +3347,49 @@
       <c r="H93" s="38"/>
       <c r="I93" s="36"/>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" s="30"/>
       <c r="B94" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="30" t="s">
+        <v>238</v>
+      </c>
       <c r="D94" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E94" s="25">
         <v>2</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="30">
         <v>2</v>
       </c>
       <c r="G94" s="30"/>
       <c r="H94" s="38"/>
       <c r="I94" s="36"/>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9" ht="14.25" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="D95" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E95" s="25">
         <v>2</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="30">
         <v>2</v>
       </c>
       <c r="G95" s="30"/>
       <c r="H95" s="38"/>
       <c r="I95" s="36"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
         <v>143</v>
@@ -3365,57 +3410,59 @@
       <c r="H96" s="38"/>
       <c r="I96" s="36"/>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" s="30"/>
       <c r="B97" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E97" s="25">
         <v>2</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="30">
         <v>2</v>
       </c>
       <c r="G97" s="30"/>
       <c r="H97" s="38"/>
       <c r="I97" s="36"/>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="30"/>
       <c r="B98" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="31" t="s">
-        <v>212</v>
+      <c r="C98" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="E98" s="25">
         <v>2</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="30">
         <v>2</v>
       </c>
       <c r="G98" s="30"/>
       <c r="H98" s="38"/>
       <c r="I98" s="36"/>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" s="30"/>
       <c r="B99" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="6"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E99" s="24">
         <v>3</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="30">
         <v>2</v>
       </c>
       <c r="G99" s="40" t="s">
@@ -3424,7 +3471,7 @@
       <c r="H99" s="38"/>
       <c r="I99" s="36"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>147</v>
@@ -3445,26 +3492,26 @@
       <c r="H100" s="38"/>
       <c r="I100" s="36"/>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" s="30"/>
       <c r="B101" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E101" s="24">
         <v>2</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="30">
         <v>2</v>
       </c>
       <c r="G101" s="39"/>
       <c r="H101" s="38"/>
       <c r="I101" s="36"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
         <v>149</v>
@@ -3485,7 +3532,7 @@
       <c r="H102" s="38"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+    <row r="103" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -3508,7 +3555,7 @@
       <c r="H103" s="38"/>
       <c r="I103" s="36"/>
     </row>
-    <row r="104" spans="1:9" ht="17.25" customHeight="1">
+    <row r="104" spans="1:9" ht="17.25" hidden="1" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>152</v>
       </c>
@@ -3531,7 +3578,7 @@
       <c r="H104" s="38"/>
       <c r="I104" s="36"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
         <v>154</v>
@@ -3552,7 +3599,7 @@
       <c r="H105" s="38"/>
       <c r="I105" s="36"/>
     </row>
-    <row r="106" spans="1:9" customFormat="1" hidden="1">
+    <row r="106" spans="1:9" customFormat="1" ht="270" hidden="1">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -3575,7 +3622,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9" customFormat="1" ht="30" hidden="1">
+    <row r="107" spans="1:9" customFormat="1" hidden="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>157</v>
@@ -3596,7 +3643,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
         <v>159</v>
@@ -3617,7 +3664,7 @@
       <c r="H108" s="38"/>
       <c r="I108" s="36"/>
     </row>
-    <row r="109" spans="1:9" ht="18" customHeight="1">
+    <row r="109" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>174</v>
       </c>
@@ -3638,7 +3685,7 @@
       <c r="H109" s="38"/>
       <c r="I109" s="36"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
         <v>176</v>
@@ -3657,7 +3704,7 @@
       <c r="H110" s="38"/>
       <c r="I110" s="36"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="s">
         <v>177</v>
@@ -3676,7 +3723,7 @@
       <c r="H111" s="38"/>
       <c r="I111" s="36"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="s">
         <v>178</v>
@@ -3695,7 +3742,7 @@
       <c r="H112" s="38"/>
       <c r="I112" s="36"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5" t="s">
         <v>179</v>
@@ -3714,7 +3761,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="36"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>180</v>
@@ -3733,7 +3780,7 @@
       <c r="H114" s="38"/>
       <c r="I114" s="36"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
         <v>181</v>
@@ -3752,40 +3799,44 @@
       <c r="H115" s="38"/>
       <c r="I115" s="36"/>
     </row>
-    <row r="116" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="116" spans="1:9" ht="16.5" customHeight="1">
       <c r="A116" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="6"/>
+      <c r="C116" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="D116" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E116" s="24">
         <v>0</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="30">
         <v>0</v>
       </c>
       <c r="G116" s="39"/>
       <c r="H116" s="38"/>
       <c r="I116" s="36"/>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" s="30"/>
       <c r="B117" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C117" s="6"/>
+      <c r="C117" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="D117" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E117" s="24">
         <v>0</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="30">
         <v>0</v>
       </c>
       <c r="G117" s="39"/>
@@ -3834,26 +3885,26 @@
       <c r="H119" s="3"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" s="30"/>
       <c r="B120" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="6"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="28" t="s">
         <v>212</v>
       </c>
       <c r="E120" s="24">
         <v>1</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="30">
         <v>2</v>
       </c>
       <c r="G120" s="30"/>
       <c r="H120" s="38"/>
       <c r="I120" s="36"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="30"/>
       <c r="B121" s="5" t="s">
         <v>166</v>
@@ -3874,7 +3925,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="36"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
         <v>167</v>
@@ -3895,7 +3946,7 @@
       <c r="H122" s="38"/>
       <c r="I122" s="36"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
         <v>168</v>
@@ -3937,7 +3988,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>170</v>
@@ -3977,7 +4028,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" hidden="1">
+    <row r="127" spans="1:9" customFormat="1" ht="180" hidden="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>171</v>
@@ -3998,19 +4049,19 @@
       <c r="H127" s="3"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9">
       <c r="A128" s="30"/>
       <c r="B128" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" s="30"/>
       <c r="D128" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E128" s="25">
         <v>2</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="30">
         <v>2</v>
       </c>
       <c r="G128" s="30" t="s">
@@ -4019,7 +4070,7 @@
       <c r="H128" s="38"/>
       <c r="I128" s="36"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5" t="s">
         <v>183</v>
@@ -4040,7 +4091,7 @@
       <c r="H129" s="38"/>
       <c r="I129" s="36"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5" t="s">
         <v>184</v>
@@ -4082,7 +4133,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" hidden="1">
+    <row r="132" spans="1:9" customFormat="1" ht="135" hidden="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>186</v>
@@ -4103,7 +4154,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="s">
         <v>187</v>
@@ -4124,7 +4175,7 @@
       <c r="H133" s="38"/>
       <c r="I133" s="36"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
         <v>188</v>
@@ -4145,49 +4196,53 @@
       <c r="H134" s="38"/>
       <c r="I134" s="36"/>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9">
       <c r="A135" s="30"/>
       <c r="B135" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="30"/>
       <c r="D135" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E135" s="25">
         <v>1</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="30">
         <v>3</v>
       </c>
       <c r="G135" s="30"/>
       <c r="H135" s="38"/>
       <c r="I135" s="36"/>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" s="30"/>
       <c r="B136" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="30"/>
       <c r="D136" s="31" t="s">
         <v>212</v>
       </c>
       <c r="E136" s="25">
         <v>2</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="30">
         <v>2</v>
       </c>
       <c r="G136" s="30"/>
       <c r="H136" s="38"/>
       <c r="I136" s="36"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="C137" s="37"/>
+      <c r="F137" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="N/A"/>
+        <filter val="Planning"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC11466-04C7-4CFD-B33B-283C3027C5D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239EA88-04F8-4118-ADCF-16DAC5E6115A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="243">
   <si>
     <t>Feature</t>
   </si>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>settings</t>
-  </si>
-  <si>
-    <t>Covered</t>
   </si>
   <si>
     <t>包含logoff无法重新登录测试</t>
@@ -742,9 +739,6 @@
     <t>Enterprise wifi不稳定</t>
   </si>
   <si>
-    <t>need to research decode</t>
-  </si>
-  <si>
     <t>会提示UAC，无法操纵</t>
   </si>
   <si>
@@ -770,6 +764,18 @@
   </si>
   <si>
     <t>wifi_wpap</t>
+  </si>
+  <si>
+    <t>add network donot support no encryption</t>
+  </si>
+  <si>
+    <t>messy code</t>
+  </si>
+  <si>
+    <t>wifi_hidden_ssid</t>
+  </si>
+  <si>
+    <t>easyshell_integrated_tool</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1051,6 +1057,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,15 +1355,15 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" style="37" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0.42578125" style="27" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
@@ -1373,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -1403,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -1424,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -1440,21 +1449,17 @@
       <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="4">
+        <v>201</v>
+      </c>
+      <c r="F4" s="30">
         <v>0</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>215</v>
-      </c>
+      <c r="G4" s="40"/>
       <c r="H4" s="38"/>
       <c r="I4" s="36"/>
     </row>
@@ -1470,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -1493,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1514,7 +1519,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -1537,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -1558,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -1579,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -1604,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="36"/>
@@ -1625,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="36"/>
@@ -1642,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1665,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -1686,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -1700,18 +1705,18 @@
       <c r="B16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="30">
         <v>0</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="36"/>
@@ -1728,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2">
         <v>3</v>
@@ -1753,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="36"/>
@@ -1774,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="36"/>
@@ -1795,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="36"/>
@@ -1807,18 +1812,18 @@
       <c r="B21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="24">
         <v>2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="30">
         <v>2</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="36"/>
@@ -1839,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="36"/>
@@ -1849,18 +1854,18 @@
       <c r="B23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="30">
         <v>2</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="36"/>
@@ -1870,18 +1875,18 @@
       <c r="B24" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="30">
         <v>2</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="36"/>
@@ -1891,18 +1896,18 @@
       <c r="B25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="30">
         <v>2</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="36"/>
@@ -1912,18 +1917,18 @@
       <c r="B26" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="30">
         <v>2</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="36"/>
@@ -1933,18 +1938,18 @@
       <c r="B27" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="30">
         <v>2</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="36"/>
@@ -1954,18 +1959,18 @@
       <c r="B28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="30">
         <v>2</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28" s="38"/>
       <c r="I28" s="36"/>
@@ -1986,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="36"/>
@@ -2007,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="36"/>
@@ -2026,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -2047,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -2061,18 +2066,18 @@
       <c r="B33" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="24">
         <v>2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="30">
         <v>0</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="36"/>
@@ -2089,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2">
         <v>3</v>
@@ -2114,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="36"/>
@@ -2135,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H36" s="38"/>
       <c r="I36" s="36"/>
@@ -2145,18 +2150,18 @@
       <c r="B37" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E37" s="25">
         <v>2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="30">
         <v>2</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="36"/>
@@ -2177,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H38" s="38"/>
       <c r="I38" s="36"/>
@@ -2196,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F39" s="2">
         <v>2</v>
@@ -2217,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" s="2">
         <v>2</v>
@@ -2231,18 +2236,18 @@
       <c r="B41" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="24">
         <v>2</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="30">
         <v>1</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="36"/>
@@ -2259,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
@@ -2273,18 +2278,18 @@
       <c r="B43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="25">
         <v>2</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="30">
         <v>2</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="36"/>
@@ -2294,18 +2299,18 @@
       <c r="B44" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E44" s="24">
         <v>2</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="30">
         <v>2</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H44" s="38"/>
       <c r="I44" s="36"/>
@@ -2315,18 +2320,18 @@
       <c r="B45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E45" s="24">
         <v>2</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="30">
         <v>2</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H45" s="38"/>
       <c r="I45" s="36"/>
@@ -2347,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="36"/>
@@ -2359,16 +2364,16 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="25">
         <v>2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="30">
         <v>3</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H47" s="38"/>
       <c r="I47" s="36"/>
@@ -2380,16 +2385,16 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E48" s="25">
         <v>2</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="30">
         <v>2</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="36"/>
@@ -2410,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="36"/>
@@ -2431,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H50" s="38"/>
       <c r="I50" s="36"/>
@@ -2452,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="36"/>
@@ -2464,16 +2469,16 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="25">
         <v>2</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="30">
         <v>2</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="36"/>
@@ -2485,7 +2490,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="25">
         <v>2</v>
@@ -2494,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H53" s="38"/>
       <c r="I53" s="36"/>
@@ -2515,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="36"/>
@@ -2527,7 +2532,7 @@
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55" s="25">
         <v>2</v>
@@ -2536,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="36"/>
@@ -2548,7 +2553,7 @@
       </c>
       <c r="C56" s="30"/>
       <c r="D56" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E56" s="25">
         <v>2</v>
@@ -2557,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="36"/>
@@ -2569,7 +2574,7 @@
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E57" s="25">
         <v>2</v>
@@ -2578,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="36"/>
@@ -2599,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="36"/>
@@ -2618,7 +2623,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -2639,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F60" s="2">
         <v>2</v>
@@ -2655,7 +2660,7 @@
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E61" s="24">
         <v>2</v>
@@ -2664,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="36"/>
@@ -2681,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F62" s="2">
         <v>3</v>
@@ -2697,7 +2702,7 @@
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E63" s="24">
         <v>2</v>
@@ -2706,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="36"/>
@@ -2718,7 +2723,7 @@
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" s="24">
         <v>2</v>
@@ -2727,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H64" s="38"/>
       <c r="I64" s="36"/>
@@ -2748,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H65" s="38"/>
       <c r="I65" s="36"/>
@@ -2769,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H66" s="38"/>
       <c r="I66" s="36"/>
@@ -2790,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H67" s="38"/>
       <c r="I67" s="36"/>
@@ -2802,7 +2807,7 @@
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E68" s="25">
         <v>2</v>
@@ -2811,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H68" s="38"/>
       <c r="I68" s="36"/>
@@ -2823,7 +2828,7 @@
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="25">
         <v>2</v>
@@ -2832,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H69" s="38"/>
       <c r="I69" s="36"/>
@@ -2846,7 +2851,7 @@
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E70" s="25">
         <v>2</v>
@@ -2855,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H70" s="38"/>
       <c r="I70" s="36"/>
@@ -2867,7 +2872,7 @@
       </c>
       <c r="C71" s="30"/>
       <c r="D71" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E71" s="25">
         <v>2</v>
@@ -2876,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H71" s="38"/>
       <c r="I71" s="36"/>
@@ -2888,7 +2893,7 @@
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E72" s="25">
         <v>2</v>
@@ -2896,8 +2901,8 @@
       <c r="F72" s="30">
         <v>2</v>
       </c>
-      <c r="G72" s="40" t="s">
-        <v>215</v>
+      <c r="G72" s="44" t="s">
+        <v>214</v>
       </c>
       <c r="H72" s="38"/>
       <c r="I72" s="36"/>
@@ -2916,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -2937,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>
@@ -2958,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="2">
         <v>2</v>
@@ -2974,7 +2979,7 @@
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" s="25">
         <v>3</v>
@@ -3000,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>
@@ -3025,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H78" s="38"/>
       <c r="I78" s="36"/>
@@ -3046,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H79" s="38"/>
       <c r="I79" s="36"/>
@@ -3063,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="2">
         <v>2</v>
@@ -3084,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="2">
         <v>2</v>
@@ -3105,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
@@ -3126,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F83" s="2">
         <v>3</v>
@@ -3151,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H84" s="38"/>
       <c r="I84" s="36"/>
@@ -3165,7 +3170,7 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E85" s="24">
         <v>2</v>
@@ -3174,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H85" s="38"/>
       <c r="I85" s="36"/>
@@ -3191,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F86" s="2">
         <v>2</v>
@@ -3209,7 +3214,7 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E87" s="26">
         <v>3</v>
@@ -3218,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H87" s="38"/>
       <c r="I87" s="36"/>
@@ -3239,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="36"/>
@@ -3256,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F89" s="30">
         <v>1</v>
@@ -3275,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F90" s="2">
         <v>2</v>
@@ -3294,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91" s="2">
         <v>2</v>
@@ -3319,12 +3324,12 @@
         <v>2</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H92" s="38"/>
       <c r="I92" s="36"/>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1">
+    <row r="93" spans="1:9" ht="18.75" hidden="1" customHeight="1">
       <c r="A93" s="30" t="s">
         <v>139</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>140</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D93" s="31" t="s">
         <v>9</v>
@@ -3347,13 +3352,13 @@
       <c r="H93" s="38"/>
       <c r="I93" s="36"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="30"/>
       <c r="B94" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>9</v>
@@ -3368,16 +3373,16 @@
       <c r="H94" s="38"/>
       <c r="I94" s="36"/>
     </row>
-    <row r="95" spans="1:9" ht="14.25" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E95" s="25">
         <v>2</v>
@@ -3405,19 +3410,19 @@
         <v>2</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H96" s="38"/>
       <c r="I96" s="36"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="30"/>
       <c r="B97" s="30" t="s">
         <v>144</v>
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="31" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="E97" s="25">
         <v>2</v>
@@ -3425,17 +3430,19 @@
       <c r="F97" s="30">
         <v>2</v>
       </c>
-      <c r="G97" s="30"/>
+      <c r="G97" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="H97" s="38"/>
       <c r="I97" s="36"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="30"/>
       <c r="B98" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>9</v>
@@ -3457,7 +3464,7 @@
       </c>
       <c r="C99" s="30"/>
       <c r="D99" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E99" s="24">
         <v>3</v>
@@ -3466,12 +3473,12 @@
         <v>2</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H99" s="38"/>
       <c r="I99" s="36"/>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9" ht="2.25" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>147</v>
@@ -3486,8 +3493,8 @@
       <c r="F100" s="6">
         <v>3</v>
       </c>
-      <c r="G100" s="42" t="s">
-        <v>231</v>
+      <c r="G100" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="H100" s="38"/>
       <c r="I100" s="36"/>
@@ -3497,9 +3504,11 @@
       <c r="B101" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="30"/>
+      <c r="C101" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="D101" s="31" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="E101" s="24">
         <v>2</v>
@@ -3550,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H103" s="38"/>
       <c r="I103" s="36"/>
@@ -3573,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H104" s="38"/>
       <c r="I104" s="36"/>
@@ -3594,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H105" s="38"/>
       <c r="I105" s="36"/>
@@ -3613,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F106" s="2">
         <v>2</v>
@@ -3634,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
@@ -3659,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H108" s="38"/>
       <c r="I108" s="36"/>
@@ -3680,7 +3689,7 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H109" s="38"/>
       <c r="I109" s="36"/>
@@ -3699,7 +3708,7 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H110" s="38"/>
       <c r="I110" s="36"/>
@@ -3718,7 +3727,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H111" s="38"/>
       <c r="I111" s="36"/>
@@ -3737,7 +3746,7 @@
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H112" s="38"/>
       <c r="I112" s="36"/>
@@ -3756,7 +3765,7 @@
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H113" s="38"/>
       <c r="I113" s="36"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H114" s="38"/>
       <c r="I114" s="36"/>
@@ -3794,12 +3803,12 @@
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H115" s="38"/>
       <c r="I115" s="36"/>
     </row>
-    <row r="116" spans="1:9" ht="16.5" customHeight="1">
+    <row r="116" spans="1:9" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="30" t="s">
         <v>160</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>161</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D116" s="31" t="s">
         <v>9</v>
@@ -3822,13 +3831,13 @@
       <c r="H116" s="38"/>
       <c r="I116" s="36"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="30"/>
       <c r="B117" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>9</v>
@@ -3855,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F118" s="2">
         <v>2</v>
@@ -3876,7 +3885,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F119" s="2">
         <v>3</v>
@@ -3890,9 +3899,11 @@
       <c r="B120" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="30"/>
+      <c r="C120" s="44" t="s">
+        <v>242</v>
+      </c>
       <c r="D120" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E120" s="24">
         <v>1</v>
@@ -3920,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H121" s="38"/>
       <c r="I121" s="36"/>
@@ -3941,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H122" s="38"/>
       <c r="I122" s="36"/>
@@ -3962,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H123" s="38"/>
       <c r="I123" s="36"/>
@@ -3979,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F124" s="2">
         <v>3</v>
@@ -4004,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H125" s="38"/>
       <c r="I125" s="36"/>
@@ -4023,7 +4034,7 @@
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="8"/>
@@ -4056,7 +4067,7 @@
       </c>
       <c r="C128" s="30"/>
       <c r="D128" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E128" s="25">
         <v>2</v>
@@ -4065,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H128" s="38"/>
       <c r="I128" s="36"/>
@@ -4086,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H129" s="38"/>
       <c r="I129" s="36"/>
@@ -4107,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H130" s="38"/>
       <c r="I130" s="36"/>
@@ -4118,13 +4129,13 @@
         <v>185</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F131" s="2">
         <v>3</v>
@@ -4170,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H133" s="38"/>
       <c r="I133" s="36"/>
@@ -4203,7 +4214,7 @@
       </c>
       <c r="C135" s="30"/>
       <c r="D135" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E135" s="25">
         <v>1</v>
@@ -4222,7 +4233,7 @@
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E136" s="25">
         <v>2</v>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239EA88-04F8-4118-ADCF-16DAC5E6115A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC45F6C-BBBD-449A-A366-FF15918BD271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
   <si>
     <t>Feature</t>
   </si>
@@ -776,18 +776,37 @@
   </si>
   <si>
     <t>easyshell_integrated_tool</t>
+  </si>
+  <si>
+    <t>settings_background</t>
+  </si>
+  <si>
+    <t>task_sound_readonly</t>
+  </si>
+  <si>
+    <t>task_modify_sound_mouse</t>
+  </si>
+  <si>
+    <t>task_modify_sound_key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -965,31 +984,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,10 +1023,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1022,10 +1038,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,28 +1054,43 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1352,53 +1383,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="37" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.42578125" style="27" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="79.42578125" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="69.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.42578125" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="210" hidden="1">
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1442,7 @@
       <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="2">
@@ -1421,7 +1452,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" hidden="1">
+    <row r="3" spans="1:9" customFormat="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1432,7 +1463,7 @@
       <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="2">
@@ -1444,26 +1475,26 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:9" hidden="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>0</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" hidden="1">
+      <c r="G4" s="39"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1474,7 +1505,7 @@
       <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F5" s="2">
@@ -1486,7 +1517,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" hidden="1">
+    <row r="6" spans="1:9" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1497,7 +1528,7 @@
       <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F6" s="2">
@@ -1507,7 +1538,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" hidden="1">
+    <row r="7" spans="1:9" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1518,7 +1549,7 @@
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="2">
@@ -1530,7 +1561,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" hidden="1">
+    <row r="8" spans="1:9" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1541,7 +1572,7 @@
       <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="2">
@@ -1551,7 +1582,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" hidden="1">
+    <row r="9" spans="1:9" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1562,7 +1593,7 @@
       <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F9" s="2">
@@ -1572,7 +1603,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" hidden="1">
+    <row r="10" spans="1:9" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1583,7 +1614,7 @@
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="2">
@@ -1602,7 +1633,7 @@
       <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>3</v>
       </c>
       <c r="F11" s="5">
@@ -1611,8 +1642,8 @@
       <c r="G11" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="5"/>
@@ -1623,19 +1654,19 @@
       <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>2</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" ht="30" hidden="1">
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="30">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>29</v>
@@ -1646,7 +1677,7 @@
       <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F13" s="2">
@@ -1656,7 +1687,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="315" hidden="1">
+    <row r="14" spans="1:9" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1700,7 @@
       <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="2">
@@ -1679,7 +1710,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" hidden="1">
+    <row r="15" spans="1:9" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -1690,7 +1721,7 @@
       <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F15" s="2">
@@ -1700,28 +1731,28 @@
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30" t="s">
+    <row r="16" spans="1:9" hidden="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>0</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" customFormat="1" hidden="1">
+      <c r="H16" s="37"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>37</v>
@@ -1732,7 +1763,7 @@
       <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F17" s="2">
@@ -1751,17 +1782,17 @@
       <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>3</v>
       </c>
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="30" hidden="1">
       <c r="A19" s="7"/>
@@ -1772,17 +1803,17 @@
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>3</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="5"/>
@@ -1793,40 +1824,40 @@
       <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>3</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" hidden="1" customHeight="1">
+      <c r="A21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="24">
-        <v>2</v>
-      </c>
-      <c r="F21" s="30">
-        <v>2</v>
-      </c>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="30" hidden="1">
       <c r="A22" s="5"/>
@@ -1837,143 +1868,143 @@
       <c r="D22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>3</v>
       </c>
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30" t="s">
+      <c r="H22" s="37"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" hidden="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="24">
-        <v>2</v>
-      </c>
-      <c r="F23" s="30">
-        <v>2</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="E23" s="23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="29">
+        <v>2</v>
+      </c>
+      <c r="G23" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30" t="s">
+      <c r="H23" s="37"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" hidden="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="30">
-        <v>2</v>
-      </c>
-      <c r="G24" s="40" t="s">
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="29">
+        <v>2</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
+      <c r="H24" s="37"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" hidden="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="24">
-        <v>2</v>
-      </c>
-      <c r="F25" s="30">
-        <v>2</v>
-      </c>
-      <c r="G25" s="40" t="s">
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="29">
+        <v>2</v>
+      </c>
+      <c r="G25" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" hidden="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="24">
-        <v>2</v>
-      </c>
-      <c r="F26" s="30">
-        <v>2</v>
-      </c>
-      <c r="G26" s="40" t="s">
+      <c r="E26" s="23">
+        <v>2</v>
+      </c>
+      <c r="F26" s="29">
+        <v>2</v>
+      </c>
+      <c r="G26" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30" t="s">
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" hidden="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="24">
-        <v>2</v>
-      </c>
-      <c r="F27" s="30">
-        <v>2</v>
-      </c>
-      <c r="G27" s="40" t="s">
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="29">
+        <v>2</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30" t="s">
+      <c r="H27" s="37"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" hidden="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="24">
-        <v>2</v>
-      </c>
-      <c r="F28" s="30">
-        <v>2</v>
-      </c>
-      <c r="G28" s="40" t="s">
+      <c r="E28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="29">
+        <v>2</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9" ht="30" hidden="1">
       <c r="A29" s="5"/>
@@ -1984,17 +2015,17 @@
       <c r="D29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>2</v>
       </c>
       <c r="F29" s="6">
         <v>2</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9" ht="30" hidden="1">
       <c r="A30" s="5"/>
@@ -2005,19 +2036,19 @@
       <c r="D30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>2</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" spans="1:9" customFormat="1" ht="90" hidden="1">
+      <c r="H30" s="37"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2030,7 +2061,7 @@
       <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F31" s="2">
@@ -2040,7 +2071,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" customFormat="1" hidden="1">
+    <row r="32" spans="1:9" customFormat="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>56</v>
@@ -2051,7 +2082,7 @@
       <c r="D32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="2">
@@ -2061,28 +2092,28 @@
       <c r="H32" s="3"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="1:9" hidden="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="24">
-        <v>2</v>
-      </c>
-      <c r="F33" s="30">
+      <c r="E33" s="23">
+        <v>2</v>
+      </c>
+      <c r="F33" s="29">
         <v>0</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="36"/>
-    </row>
-    <row r="34" spans="1:9" customFormat="1" hidden="1">
+      <c r="H33" s="37"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>59</v>
@@ -2093,7 +2124,7 @@
       <c r="D34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F34" s="2">
@@ -2112,17 +2143,17 @@
       <c r="D35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>3</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" spans="1:9" ht="30" hidden="1">
       <c r="A36" s="5"/>
@@ -2133,38 +2164,38 @@
       <c r="D36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>3</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
+      <c r="H36" s="37"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="25">
-        <v>2</v>
-      </c>
-      <c r="F37" s="30">
-        <v>2</v>
-      </c>
-      <c r="G37" s="40" t="s">
+      <c r="E37" s="24">
+        <v>2</v>
+      </c>
+      <c r="F37" s="29">
+        <v>2</v>
+      </c>
+      <c r="G37" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="5"/>
@@ -2175,19 +2206,19 @@
       <c r="D38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>3</v>
       </c>
       <c r="F38" s="6">
         <v>2</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:9" customFormat="1" ht="195" hidden="1">
+      <c r="H38" s="37"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2231,7 @@
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F39" s="2">
@@ -2210,7 +2241,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" customFormat="1" hidden="1">
+    <row r="40" spans="1:9" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>68</v>
@@ -2221,7 +2252,7 @@
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F40" s="2">
@@ -2231,28 +2262,28 @@
       <c r="H40" s="3"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
+    <row r="41" spans="1:9" hidden="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="24">
-        <v>2</v>
-      </c>
-      <c r="F41" s="30">
+      <c r="E41" s="23">
+        <v>2</v>
+      </c>
+      <c r="F41" s="29">
         <v>1</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" spans="1:9" customFormat="1" hidden="1">
+      <c r="H41" s="37"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>71</v>
@@ -2263,78 +2294,78 @@
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="3"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
+    <row r="43" spans="1:9" hidden="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="25">
-        <v>2</v>
-      </c>
-      <c r="F43" s="30">
-        <v>2</v>
-      </c>
-      <c r="G43" s="40" t="s">
+      <c r="E43" s="24">
+        <v>2</v>
+      </c>
+      <c r="F43" s="29">
+        <v>2</v>
+      </c>
+      <c r="G43" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30" t="s">
+      <c r="H43" s="37"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="24">
-        <v>2</v>
-      </c>
-      <c r="F44" s="30">
-        <v>2</v>
-      </c>
-      <c r="G44" s="40" t="s">
+      <c r="E44" s="23">
+        <v>2</v>
+      </c>
+      <c r="F44" s="29">
+        <v>2</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="24">
-        <v>2</v>
-      </c>
-      <c r="F45" s="30">
-        <v>2</v>
-      </c>
-      <c r="G45" s="40" t="s">
+      <c r="E45" s="23">
+        <v>2</v>
+      </c>
+      <c r="F45" s="29">
+        <v>2</v>
+      </c>
+      <c r="G45" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="30" hidden="1">
       <c r="A46" s="5"/>
@@ -2345,59 +2376,59 @@
       <c r="D46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>3</v>
       </c>
       <c r="F46" s="6">
         <v>2</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30" t="s">
+      <c r="H46" s="37"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="25">
-        <v>2</v>
-      </c>
-      <c r="F47" s="30">
-        <v>3</v>
-      </c>
-      <c r="G47" s="40" t="s">
+      <c r="E47" s="24">
+        <v>2</v>
+      </c>
+      <c r="F47" s="29">
+        <v>3</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30" t="s">
+      <c r="H47" s="37"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="25">
-        <v>2</v>
-      </c>
-      <c r="F48" s="30">
-        <v>2</v>
-      </c>
-      <c r="G48" s="40" t="s">
+      <c r="E48" s="24">
+        <v>2</v>
+      </c>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="38"/>
-      <c r="I48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="35"/>
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="5"/>
@@ -2408,17 +2439,17 @@
       <c r="D49" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>3</v>
       </c>
       <c r="F49" s="5">
         <v>2</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="5"/>
@@ -2429,80 +2460,80 @@
       <c r="D50" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>3</v>
       </c>
       <c r="F50" s="5">
         <v>3</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="35"/>
     </row>
     <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="25">
-        <v>3</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51" s="42" t="s">
+      <c r="C51" s="6"/>
+      <c r="D51" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="24">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2</v>
+      </c>
+      <c r="G51" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30" t="s">
+      <c r="H51" s="37"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E52" s="25">
-        <v>2</v>
-      </c>
-      <c r="F52" s="30">
-        <v>2</v>
-      </c>
-      <c r="G52" s="40" t="s">
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52" s="29">
+        <v>2</v>
+      </c>
+      <c r="G52" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="I52" s="36"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <v>2</v>
       </c>
       <c r="F53" s="2">
         <v>3</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="35"/>
     </row>
     <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="5"/>
@@ -2513,103 +2544,103 @@
       <c r="D54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <v>3</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H54" s="38"/>
-      <c r="I54" s="36"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30" t="s">
+      <c r="H54" s="37"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="25">
-        <v>2</v>
-      </c>
-      <c r="F55" s="30">
-        <v>3</v>
-      </c>
-      <c r="G55" s="40" t="s">
+      <c r="E55" s="24">
+        <v>2</v>
+      </c>
+      <c r="F55" s="29">
+        <v>3</v>
+      </c>
+      <c r="G55" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H55" s="38"/>
-      <c r="I55" s="36"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30" t="s">
+      <c r="H55" s="37"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="25">
-        <v>2</v>
-      </c>
-      <c r="F56" s="30">
-        <v>3</v>
-      </c>
-      <c r="G56" s="40" t="s">
+      <c r="E56" s="24">
+        <v>2</v>
+      </c>
+      <c r="F56" s="29">
+        <v>3</v>
+      </c>
+      <c r="G56" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H56" s="38"/>
-      <c r="I56" s="36"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30" t="s">
+      <c r="H56" s="37"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="25">
-        <v>2</v>
-      </c>
-      <c r="F57" s="30">
-        <v>2</v>
-      </c>
-      <c r="G57" s="40" t="s">
+      <c r="E57" s="24">
+        <v>2</v>
+      </c>
+      <c r="F57" s="29">
+        <v>2</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="25">
-        <v>3</v>
-      </c>
-      <c r="F58" s="2">
-        <v>3</v>
-      </c>
-      <c r="G58" s="42" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="24">
+        <v>3</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3</v>
+      </c>
+      <c r="G58" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H58" s="38"/>
-      <c r="I58" s="36"/>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="195" hidden="1">
+      <c r="H58" s="37"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -2622,7 +2653,7 @@
       <c r="D59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F59" s="2">
@@ -2632,7 +2663,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" customFormat="1" hidden="1">
+    <row r="60" spans="1:9" customFormat="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -2643,7 +2674,7 @@
       <c r="D60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F60" s="2">
@@ -2653,28 +2684,28 @@
       <c r="H60" s="3"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30" t="s">
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="24">
-        <v>2</v>
-      </c>
-      <c r="F61" s="30">
+      <c r="E61" s="23">
+        <v>2</v>
+      </c>
+      <c r="F61" s="29">
         <v>0</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="36"/>
-    </row>
-    <row r="62" spans="1:9" customFormat="1" hidden="1">
+      <c r="H61" s="37"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:9" customFormat="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>95</v>
@@ -2685,7 +2716,7 @@
       <c r="D62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F62" s="2">
@@ -2695,219 +2726,225 @@
       <c r="H62" s="3"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30" t="s">
+    <row r="63" spans="1:9" hidden="1">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="24">
-        <v>2</v>
-      </c>
-      <c r="F63" s="30">
-        <v>2</v>
-      </c>
-      <c r="G63" s="40" t="s">
+      <c r="E63" s="23">
+        <v>2</v>
+      </c>
+      <c r="F63" s="29">
+        <v>2</v>
+      </c>
+      <c r="G63" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H63" s="38"/>
-      <c r="I63" s="36"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30" t="s">
+      <c r="H63" s="37"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="24">
-        <v>2</v>
-      </c>
-      <c r="F64" s="30">
-        <v>2</v>
-      </c>
-      <c r="G64" s="40" t="s">
+      <c r="E64" s="23">
+        <v>2</v>
+      </c>
+      <c r="F64" s="29">
+        <v>2</v>
+      </c>
+      <c r="G64" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H64" s="38"/>
-      <c r="I64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="35"/>
     </row>
     <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="23">
-        <v>3</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2</v>
-      </c>
-      <c r="G65" s="41" t="s">
+      <c r="C65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="22">
+        <v>3</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="35"/>
     </row>
     <row r="66" spans="1:9" ht="30" hidden="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="23">
+      <c r="C66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="22">
         <v>3</v>
       </c>
       <c r="F66" s="6">
         <v>2</v>
       </c>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="35"/>
     </row>
     <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="23">
-        <v>3</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2</v>
-      </c>
-      <c r="G67" s="42" t="s">
+      <c r="C67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="22">
+        <v>3</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="36"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30" t="s">
+      <c r="H67" s="37"/>
+      <c r="I67" s="35"/>
+    </row>
+    <row r="68" spans="1:9" hidden="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E68" s="25">
-        <v>2</v>
-      </c>
-      <c r="F68" s="30">
-        <v>2</v>
-      </c>
-      <c r="G68" s="40" t="s">
+      <c r="E68" s="24">
+        <v>2</v>
+      </c>
+      <c r="F68" s="29">
+        <v>2</v>
+      </c>
+      <c r="G68" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="36"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30" t="s">
+      <c r="H68" s="37"/>
+      <c r="I68" s="35"/>
+    </row>
+    <row r="69" spans="1:9" hidden="1">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="25">
-        <v>2</v>
-      </c>
-      <c r="F69" s="30">
-        <v>3</v>
-      </c>
-      <c r="G69" s="40" t="s">
+      <c r="E69" s="24">
+        <v>2</v>
+      </c>
+      <c r="F69" s="29">
+        <v>3</v>
+      </c>
+      <c r="G69" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H69" s="38"/>
-      <c r="I69" s="36"/>
-    </row>
-    <row r="70" spans="1:9" ht="21" customHeight="1">
-      <c r="A70" s="30" t="s">
+      <c r="H69" s="37"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:9" ht="21" hidden="1" customHeight="1">
+      <c r="A70" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E70" s="25">
-        <v>2</v>
-      </c>
-      <c r="F70" s="30">
-        <v>2</v>
-      </c>
-      <c r="G70" s="40" t="s">
+      <c r="E70" s="24">
+        <v>2</v>
+      </c>
+      <c r="F70" s="29">
+        <v>2</v>
+      </c>
+      <c r="G70" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="36"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30" t="s">
+      <c r="H70" s="37"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="25">
-        <v>2</v>
-      </c>
-      <c r="F71" s="30">
-        <v>2</v>
-      </c>
-      <c r="G71" s="40" t="s">
+      <c r="E71" s="24">
+        <v>2</v>
+      </c>
+      <c r="F71" s="29">
+        <v>2</v>
+      </c>
+      <c r="G71" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="36"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30" t="s">
+      <c r="H71" s="37"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31" t="s">
+      <c r="C72" s="29"/>
+      <c r="D72" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="25">
-        <v>2</v>
-      </c>
-      <c r="F72" s="30">
-        <v>2</v>
-      </c>
-      <c r="G72" s="44" t="s">
+      <c r="E72" s="24">
+        <v>2</v>
+      </c>
+      <c r="F72" s="29">
+        <v>2</v>
+      </c>
+      <c r="G72" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="36"/>
-    </row>
-    <row r="73" spans="1:9" customFormat="1" ht="165" hidden="1">
+      <c r="H72" s="37"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -2920,7 +2957,7 @@
       <c r="D73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F73" s="2">
@@ -2930,7 +2967,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" hidden="1">
+    <row r="74" spans="1:9" customFormat="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>110</v>
@@ -2941,7 +2978,7 @@
       <c r="D74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F74" s="2">
@@ -2951,7 +2988,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" hidden="1">
+    <row r="75" spans="1:9" customFormat="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -2962,7 +2999,7 @@
       <c r="D75" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F75" s="2">
@@ -2973,25 +3010,27 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30" t="s">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" s="25">
-        <v>3</v>
-      </c>
-      <c r="F76" s="30">
-        <v>2</v>
-      </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="36"/>
-    </row>
-    <row r="77" spans="1:9" customFormat="1" ht="270" hidden="1">
+      <c r="C76" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="24">
+        <v>3</v>
+      </c>
+      <c r="F76" s="29">
+        <v>2</v>
+      </c>
+      <c r="G76" s="38"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -3001,10 +3040,10 @@
       <c r="C77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="22" t="s">
+      <c r="D77" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="2">
@@ -3014,49 +3053,53 @@
       <c r="H77" s="3"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="23">
-        <v>3</v>
-      </c>
-      <c r="F78" s="5">
+      <c r="C78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="22">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6">
         <v>2</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="36"/>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+      <c r="H78" s="37"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="25">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2">
-        <v>3</v>
-      </c>
-      <c r="G79" s="42" t="s">
+      <c r="C79" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="24">
+        <v>3</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3</v>
+      </c>
+      <c r="G79" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="36"/>
-    </row>
-    <row r="80" spans="1:9" customFormat="1" hidden="1">
+      <c r="H79" s="37"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>118</v>
@@ -3067,7 +3110,7 @@
       <c r="D80" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F80" s="2">
@@ -3077,7 +3120,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9" customFormat="1" hidden="1">
+    <row r="81" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>120</v>
@@ -3088,7 +3131,7 @@
       <c r="D81" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F81" s="2">
@@ -3098,7 +3141,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="1:9" customFormat="1" hidden="1">
+    <row r="82" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>122</v>
@@ -3109,7 +3152,7 @@
       <c r="D82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F82" s="2">
@@ -3119,7 +3162,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" hidden="1">
+    <row r="83" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>124</v>
@@ -3130,7 +3173,7 @@
       <c r="D83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F83" s="2">
@@ -3140,7 +3183,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
         <v>126</v>
@@ -3149,42 +3192,42 @@
       <c r="D84" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <v>3</v>
       </c>
       <c r="F84" s="5">
         <v>2</v>
       </c>
-      <c r="G84" s="41" t="s">
+      <c r="G84" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="36"/>
-    </row>
-    <row r="85" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A85" s="30" t="s">
+      <c r="H84" s="37"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A85" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31" t="s">
+      <c r="C85" s="29"/>
+      <c r="D85" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E85" s="24">
-        <v>2</v>
-      </c>
-      <c r="F85" s="30">
+      <c r="E85" s="23">
+        <v>2</v>
+      </c>
+      <c r="F85" s="29">
         <v>1</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H85" s="38"/>
-      <c r="I85" s="36"/>
-    </row>
-    <row r="86" spans="1:9" customFormat="1" hidden="1">
+      <c r="H85" s="37"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>129</v>
@@ -3195,7 +3238,7 @@
       <c r="D86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F86" s="2">
@@ -3205,81 +3248,85 @@
       <c r="H86" s="3"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A87" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E87" s="26">
-        <v>3</v>
-      </c>
-      <c r="F87" s="30">
-        <v>2</v>
-      </c>
-      <c r="G87" s="40" t="s">
+      <c r="E87" s="25">
+        <v>3</v>
+      </c>
+      <c r="F87" s="29">
+        <v>2</v>
+      </c>
+      <c r="G87" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="H87" s="38"/>
-      <c r="I87" s="36"/>
-    </row>
-    <row r="88" spans="1:9" hidden="1">
+      <c r="H87" s="37"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="26">
-        <v>3</v>
-      </c>
-      <c r="F88" s="14">
-        <v>2</v>
-      </c>
-      <c r="G88" s="42" t="s">
+      <c r="C88" s="6"/>
+      <c r="D88" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="25">
+        <v>3</v>
+      </c>
+      <c r="F88" s="6">
+        <v>2</v>
+      </c>
+      <c r="G88" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="H88" s="38"/>
-      <c r="I88" s="36"/>
-    </row>
-    <row r="89" spans="1:9" customFormat="1" ht="405" hidden="1">
+      <c r="H88" s="37"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="29" t="s">
+      <c r="C89" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="30">
+      <c r="F89" s="29">
         <v>1</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="1:9" customFormat="1" hidden="1">
+    <row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="22" t="s">
+      <c r="C90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F90" s="2">
@@ -3289,16 +3336,18 @@
       <c r="H90" s="3"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="1:9" customFormat="1" hidden="1">
+    <row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="22" t="s">
+      <c r="C91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F91" s="2">
@@ -3308,177 +3357,177 @@
       <c r="H91" s="3"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="26">
-        <v>3</v>
-      </c>
-      <c r="F92" s="14">
-        <v>2</v>
-      </c>
-      <c r="G92" s="42" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="25">
+        <v>3</v>
+      </c>
+      <c r="F92" s="6">
+        <v>2</v>
+      </c>
+      <c r="G92" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H92" s="38"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" hidden="1" customHeight="1">
-      <c r="A93" s="30" t="s">
+      <c r="H92" s="37"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1">
+      <c r="A93" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="32">
-        <v>2</v>
-      </c>
-      <c r="F93" s="30">
+      <c r="D93" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="31">
+        <v>2</v>
+      </c>
+      <c r="F93" s="29">
         <v>1</v>
       </c>
-      <c r="G93" s="30"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="36"/>
-    </row>
-    <row r="94" spans="1:9" hidden="1">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30" t="s">
+      <c r="G93" s="29"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D94" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="25">
-        <v>2</v>
-      </c>
-      <c r="F94" s="30">
-        <v>2</v>
-      </c>
-      <c r="G94" s="30"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="36"/>
-    </row>
-    <row r="95" spans="1:9" ht="14.25" hidden="1" customHeight="1">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30" t="s">
+      <c r="D94" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="24">
+        <v>2</v>
+      </c>
+      <c r="F94" s="29">
+        <v>2</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="25">
-        <v>2</v>
-      </c>
-      <c r="F95" s="30">
-        <v>2</v>
-      </c>
-      <c r="G95" s="30"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="36"/>
-    </row>
-    <row r="96" spans="1:9" ht="12.75" hidden="1" customHeight="1">
+      <c r="D95" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="24">
+        <v>2</v>
+      </c>
+      <c r="F95" s="29">
+        <v>2</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="24">
+      <c r="D96" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="23">
         <v>3</v>
       </c>
       <c r="F96" s="6">
         <v>2</v>
       </c>
-      <c r="G96" s="42" t="s">
+      <c r="G96" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="H96" s="38"/>
-      <c r="I96" s="36"/>
-    </row>
-    <row r="97" spans="1:9" hidden="1">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30" t="s">
+      <c r="H96" s="37"/>
+      <c r="I96" s="35"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="25">
-        <v>2</v>
-      </c>
-      <c r="F97" s="30">
-        <v>2</v>
-      </c>
-      <c r="G97" s="30" t="s">
+      <c r="C97" s="6"/>
+      <c r="D97" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="24">
+        <v>2</v>
+      </c>
+      <c r="F97" s="6">
+        <v>2</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H97" s="38"/>
-      <c r="I97" s="36"/>
-    </row>
-    <row r="98" spans="1:9" hidden="1">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30" t="s">
+      <c r="H97" s="37"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:9" ht="15" customHeight="1">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="25">
-        <v>2</v>
-      </c>
-      <c r="F98" s="30">
-        <v>2</v>
-      </c>
-      <c r="G98" s="30"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="36"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30" t="s">
+      <c r="D98" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="24">
+        <v>2</v>
+      </c>
+      <c r="F98" s="29">
+        <v>2</v>
+      </c>
+      <c r="G98" s="29"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31" t="s">
+      <c r="C99" s="29"/>
+      <c r="D99" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="24">
-        <v>3</v>
-      </c>
-      <c r="F99" s="30">
-        <v>2</v>
-      </c>
-      <c r="G99" s="40" t="s">
+      <c r="E99" s="23">
+        <v>3</v>
+      </c>
+      <c r="F99" s="29">
+        <v>2</v>
+      </c>
+      <c r="G99" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="H99" s="38"/>
-      <c r="I99" s="36"/>
-    </row>
-    <row r="100" spans="1:9" ht="2.25" customHeight="1">
+      <c r="H99" s="37"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
         <v>147</v>
@@ -3487,40 +3536,40 @@
       <c r="D100" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="23">
         <v>2</v>
       </c>
       <c r="F100" s="6">
         <v>3</v>
       </c>
-      <c r="G100" s="46" t="s">
+      <c r="G100" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="H100" s="38"/>
-      <c r="I100" s="36"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30" t="s">
+      <c r="H100" s="37"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" customHeight="1">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D101" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="24">
-        <v>2</v>
-      </c>
-      <c r="F101" s="30">
-        <v>2</v>
-      </c>
-      <c r="G101" s="39"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="36"/>
-    </row>
-    <row r="102" spans="1:9" hidden="1">
+      <c r="D101" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="23">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29">
+        <v>2</v>
+      </c>
+      <c r="G101" s="38"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="s">
         <v>149</v>
@@ -3529,19 +3578,19 @@
       <c r="D102" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="23">
         <v>3</v>
       </c>
       <c r="F102" s="6">
         <v>2</v>
       </c>
-      <c r="G102" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" s="38"/>
-      <c r="I102" s="36"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" hidden="1" customHeight="1">
+      <c r="G102" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="37"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>150</v>
       </c>
@@ -3552,63 +3601,63 @@
       <c r="D103" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="23">
         <v>2</v>
       </c>
       <c r="F103" s="6">
         <v>2</v>
       </c>
-      <c r="G103" s="41" t="s">
+      <c r="G103" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="H103" s="38"/>
-      <c r="I103" s="36"/>
-    </row>
-    <row r="104" spans="1:9" ht="17.25" hidden="1" customHeight="1">
+      <c r="H103" s="37"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" s="25">
-        <v>2</v>
-      </c>
-      <c r="F104" s="2">
-        <v>2</v>
-      </c>
-      <c r="G104" s="42" t="s">
+      <c r="C104" s="6"/>
+      <c r="D104" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="24">
+        <v>2</v>
+      </c>
+      <c r="F104" s="6">
+        <v>2</v>
+      </c>
+      <c r="G104" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="H104" s="38"/>
-      <c r="I104" s="36"/>
-    </row>
-    <row r="105" spans="1:9" hidden="1">
+      <c r="H104" s="37"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="25">
-        <v>2</v>
-      </c>
-      <c r="F105" s="2">
-        <v>2</v>
-      </c>
-      <c r="G105" s="42" t="s">
+      <c r="C105" s="6"/>
+      <c r="D105" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="24">
+        <v>2</v>
+      </c>
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+      <c r="G105" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="H105" s="38"/>
-      <c r="I105" s="36"/>
-    </row>
-    <row r="106" spans="1:9" customFormat="1" ht="270" hidden="1">
+      <c r="H105" s="37"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -3621,7 +3670,7 @@
       <c r="D106" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F106" s="2">
@@ -3631,7 +3680,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9" customFormat="1" hidden="1">
+    <row r="107" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>157</v>
@@ -3642,7 +3691,7 @@
       <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F107" s="2">
@@ -3652,28 +3701,28 @@
       <c r="H107" s="3"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
         <v>159</v>
       </c>
       <c r="C108" s="6"/>
-      <c r="D108" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="24">
+      <c r="D108" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="23">
         <v>3</v>
       </c>
       <c r="F108" s="6">
         <v>2</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="H108" s="38"/>
-      <c r="I108" s="36"/>
-    </row>
-    <row r="109" spans="1:9" ht="18" hidden="1" customHeight="1">
+      <c r="H108" s="37"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>174</v>
       </c>
@@ -3681,178 +3730,178 @@
         <v>175</v>
       </c>
       <c r="C109" s="6"/>
-      <c r="D109" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="24">
+      <c r="D109" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="23">
         <v>3</v>
       </c>
       <c r="F109" s="6"/>
-      <c r="G109" s="42" t="s">
+      <c r="G109" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H109" s="38"/>
-      <c r="I109" s="36"/>
-    </row>
-    <row r="110" spans="1:9" hidden="1">
+      <c r="H109" s="37"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C110" s="6"/>
-      <c r="D110" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="24">
+      <c r="D110" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="23">
         <v>3</v>
       </c>
       <c r="F110" s="6"/>
-      <c r="G110" s="42" t="s">
+      <c r="G110" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H110" s="38"/>
-      <c r="I110" s="36"/>
-    </row>
-    <row r="111" spans="1:9" hidden="1">
+      <c r="H110" s="37"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="24">
+      <c r="D111" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="23">
         <v>3</v>
       </c>
       <c r="F111" s="6"/>
-      <c r="G111" s="42" t="s">
+      <c r="G111" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H111" s="38"/>
-      <c r="I111" s="36"/>
-    </row>
-    <row r="112" spans="1:9" hidden="1">
+      <c r="H111" s="37"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C112" s="6"/>
-      <c r="D112" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="24">
+      <c r="D112" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="23">
         <v>3</v>
       </c>
       <c r="F112" s="6"/>
-      <c r="G112" s="42" t="s">
+      <c r="G112" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H112" s="38"/>
-      <c r="I112" s="36"/>
-    </row>
-    <row r="113" spans="1:9" hidden="1">
+      <c r="H112" s="37"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C113" s="6"/>
-      <c r="D113" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="24">
+      <c r="D113" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="23">
         <v>3</v>
       </c>
       <c r="F113" s="6"/>
-      <c r="G113" s="42" t="s">
+      <c r="G113" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H113" s="38"/>
-      <c r="I113" s="36"/>
-    </row>
-    <row r="114" spans="1:9" hidden="1">
+      <c r="H113" s="37"/>
+      <c r="I113" s="35"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C114" s="6"/>
-      <c r="D114" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="24">
+      <c r="D114" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="23">
         <v>3</v>
       </c>
       <c r="F114" s="6"/>
-      <c r="G114" s="42" t="s">
+      <c r="G114" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H114" s="38"/>
-      <c r="I114" s="36"/>
-    </row>
-    <row r="115" spans="1:9" hidden="1">
+      <c r="H114" s="37"/>
+      <c r="I114" s="35"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
         <v>181</v>
       </c>
       <c r="C115" s="6"/>
-      <c r="D115" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="24">
+      <c r="D115" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="23">
         <v>3</v>
       </c>
       <c r="F115" s="6"/>
-      <c r="G115" s="42" t="s">
+      <c r="G115" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H115" s="38"/>
-      <c r="I115" s="36"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" hidden="1" customHeight="1">
-      <c r="A116" s="30" t="s">
+      <c r="H115" s="37"/>
+      <c r="I115" s="35"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" customHeight="1">
+      <c r="A116" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="24">
+      <c r="D116" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="23">
         <v>0</v>
       </c>
-      <c r="F116" s="30">
+      <c r="F116" s="29">
         <v>0</v>
       </c>
-      <c r="G116" s="39"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="36"/>
-    </row>
-    <row r="117" spans="1:9" hidden="1">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30" t="s">
+      <c r="G116" s="38"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="24">
+      <c r="D117" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="23">
         <v>0</v>
       </c>
-      <c r="F117" s="30">
+      <c r="F117" s="29">
         <v>0</v>
       </c>
-      <c r="G117" s="39"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="36"/>
-    </row>
-    <row r="118" spans="1:9" customFormat="1" hidden="1">
+      <c r="G117" s="38"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>163</v>
@@ -3860,10 +3909,10 @@
       <c r="C118" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="22" t="s">
+      <c r="D118" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F118" s="2">
@@ -3873,7 +3922,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:9" customFormat="1" hidden="1">
+    <row r="119" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>164</v>
@@ -3881,10 +3930,10 @@
       <c r="C119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="22" t="s">
+      <c r="D119" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F119" s="2">
@@ -3894,29 +3943,29 @@
       <c r="H119" s="3"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30" t="s">
+    <row r="120" spans="1:9" ht="15" customHeight="1">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="44" t="s">
+      <c r="C120" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" s="24">
+      <c r="D120" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="23">
         <v>1</v>
       </c>
-      <c r="F120" s="30">
-        <v>2</v>
-      </c>
-      <c r="G120" s="30"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="36"/>
-    </row>
-    <row r="121" spans="1:9" hidden="1">
-      <c r="A121" s="30"/>
+      <c r="F120" s="29">
+        <v>2</v>
+      </c>
+      <c r="G120" s="29"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="35"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A121" s="6"/>
       <c r="B121" s="5" t="s">
         <v>166</v>
       </c>
@@ -3924,19 +3973,19 @@
       <c r="D121" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="24">
+      <c r="E121" s="23">
         <v>2</v>
       </c>
       <c r="F121" s="6">
         <v>1</v>
       </c>
-      <c r="G121" s="41" t="s">
+      <c r="G121" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="H121" s="38"/>
-      <c r="I121" s="36"/>
-    </row>
-    <row r="122" spans="1:9" hidden="1">
+      <c r="H121" s="37"/>
+      <c r="I121" s="35"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="s">
         <v>167</v>
@@ -3945,19 +3994,19 @@
       <c r="D122" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="24">
+      <c r="E122" s="23">
         <v>3</v>
       </c>
       <c r="F122" s="6">
         <v>1</v>
       </c>
-      <c r="G122" s="42" t="s">
+      <c r="G122" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="H122" s="38"/>
-      <c r="I122" s="36"/>
-    </row>
-    <row r="123" spans="1:9" hidden="1">
+      <c r="H122" s="37"/>
+      <c r="I122" s="35"/>
+    </row>
+    <row r="123" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="s">
         <v>168</v>
@@ -3966,19 +4015,19 @@
       <c r="D123" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="23">
         <v>3</v>
       </c>
       <c r="F123" s="6">
         <v>1</v>
       </c>
-      <c r="G123" s="42" t="s">
+      <c r="G123" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="H123" s="38"/>
-      <c r="I123" s="36"/>
-    </row>
-    <row r="124" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="H123" s="37"/>
+      <c r="I123" s="35"/>
+    </row>
+    <row r="124" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>169</v>
@@ -3986,10 +4035,10 @@
       <c r="C124" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D124" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="22" t="s">
+      <c r="D124" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F124" s="2">
@@ -3999,7 +4048,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="s">
         <v>170</v>
@@ -4008,38 +4057,38 @@
       <c r="D125" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="24">
+      <c r="E125" s="23">
         <v>3</v>
       </c>
       <c r="F125" s="6">
         <v>2</v>
       </c>
-      <c r="G125" s="41" t="s">
+      <c r="G125" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="H125" s="38"/>
-      <c r="I125" s="36"/>
-    </row>
-    <row r="126" spans="1:9" customFormat="1" hidden="1">
+      <c r="H125" s="37"/>
+      <c r="I125" s="35"/>
+    </row>
+    <row r="126" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C126" s="6"/>
-      <c r="D126" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="24">
+      <c r="D126" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="23">
         <v>2</v>
       </c>
       <c r="F126" s="6"/>
-      <c r="G126" s="18" t="s">
+      <c r="G126" s="17" t="s">
         <v>209</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="180" hidden="1">
+    <row r="127" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>171</v>
@@ -4047,10 +4096,10 @@
       <c r="C127" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="25" t="s">
+      <c r="D127" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F127" s="2">
@@ -4060,28 +4109,28 @@
       <c r="H127" s="3"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30" t="s">
+    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="31" t="s">
+      <c r="C128" s="29"/>
+      <c r="D128" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E128" s="25">
-        <v>2</v>
-      </c>
-      <c r="F128" s="30">
-        <v>2</v>
-      </c>
-      <c r="G128" s="30" t="s">
+      <c r="E128" s="24">
+        <v>2</v>
+      </c>
+      <c r="F128" s="29">
+        <v>2</v>
+      </c>
+      <c r="G128" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H128" s="38"/>
-      <c r="I128" s="36"/>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
+      <c r="H128" s="37"/>
+      <c r="I128" s="35"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5" t="s">
         <v>183</v>
@@ -4090,7 +4139,7 @@
       <c r="D129" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="24">
+      <c r="E129" s="23">
         <v>3</v>
       </c>
       <c r="F129" s="6">
@@ -4099,10 +4148,10 @@
       <c r="G129" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H129" s="38"/>
-      <c r="I129" s="36"/>
-    </row>
-    <row r="130" spans="1:9" hidden="1">
+      <c r="H129" s="37"/>
+      <c r="I129" s="35"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5" t="s">
         <v>184</v>
@@ -4111,7 +4160,7 @@
       <c r="D130" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="24">
+      <c r="E130" s="23">
         <v>2</v>
       </c>
       <c r="F130" s="6">
@@ -4120,10 +4169,10 @@
       <c r="G130" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H130" s="38"/>
-      <c r="I130" s="36"/>
-    </row>
-    <row r="131" spans="1:9" customFormat="1" hidden="1">
+      <c r="H130" s="37"/>
+      <c r="I130" s="35"/>
+    </row>
+    <row r="131" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>185</v>
@@ -4134,7 +4183,7 @@
       <c r="D131" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="25" t="s">
+      <c r="E131" s="24" t="s">
         <v>201</v>
       </c>
       <c r="F131" s="2">
@@ -4144,7 +4193,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" ht="135" hidden="1">
+    <row r="132" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>186</v>
@@ -4152,10 +4201,10 @@
       <c r="C132" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="25" t="s">
+      <c r="D132" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="2">
@@ -4165,95 +4214,96 @@
       <c r="H132" s="3"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E133" s="25">
-        <v>2</v>
-      </c>
-      <c r="F133" s="2">
+      <c r="C133" s="6"/>
+      <c r="D133" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="24">
+        <v>2</v>
+      </c>
+      <c r="F133" s="6">
         <v>3</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H133" s="38"/>
-      <c r="I133" s="36"/>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
+      <c r="H133" s="37"/>
+      <c r="I133" s="35"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="25">
-        <v>3</v>
-      </c>
-      <c r="F134" s="2">
+      <c r="C134" s="6"/>
+      <c r="D134" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="24">
+        <v>3</v>
+      </c>
+      <c r="F134" s="6">
         <v>2</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H134" s="38"/>
-      <c r="I134" s="36"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30" t="s">
+      <c r="H134" s="37"/>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A135" s="29"/>
+      <c r="B135" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C135" s="30"/>
-      <c r="D135" s="31" t="s">
+      <c r="C135" s="29"/>
+      <c r="D135" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E135" s="25">
+      <c r="E135" s="24">
         <v>1</v>
       </c>
-      <c r="F135" s="30">
-        <v>3</v>
-      </c>
-      <c r="G135" s="30"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="36"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30" t="s">
+      <c r="F135" s="29">
+        <v>3</v>
+      </c>
+      <c r="G135" s="29"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="35"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A136" s="29"/>
+      <c r="B136" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C136" s="30"/>
-      <c r="D136" s="31" t="s">
+      <c r="C136" s="29"/>
+      <c r="D136" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="E136" s="25">
-        <v>2</v>
-      </c>
-      <c r="F136" s="30">
-        <v>2</v>
-      </c>
-      <c r="G136" s="30"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="36"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="C137" s="37"/>
-      <c r="F137" s="37"/>
-    </row>
+      <c r="E136" s="24">
+        <v>2</v>
+      </c>
+      <c r="F136" s="29">
+        <v>2</v>
+      </c>
+      <c r="G136" s="29"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="35"/>
+    </row>
+    <row r="137" spans="1:9" ht="15" customHeight="1">
+      <c r="C137" s="36"/>
+      <c r="F137" s="36"/>
+    </row>
+    <row r="138" spans="1:9" ht="15" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Planning"/>
+        <filter val="Completed"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC45F6C-BBBD-449A-A366-FF15918BD271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485D82D-9137-4AFF-9D22-D8919574848C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="248">
   <si>
     <t>Feature</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>task_modify_sound_key</t>
+  </si>
+  <si>
+    <t>app_launch</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,12 +859,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,16 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -978,119 +972,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,50 +1380,50 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="69.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.42578125" style="25" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.42578125" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="36"/>
+    <col min="7" max="7" width="79.42578125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" ht="27" customHeight="1">
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1439,10 +1433,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="2">
@@ -1450,9 +1444,9 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" hidden="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1460,41 +1454,43 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" hidden="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>0</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" customFormat="1">
+      <c r="G4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" hidden="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1502,22 +1498,22 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" customFormat="1">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" hidden="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1525,10 +1521,10 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F6" s="2">
@@ -1536,9 +1532,9 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" customFormat="1">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1546,22 +1542,22 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1569,10 +1565,10 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="2">
@@ -1580,9 +1576,9 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" customFormat="1">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" hidden="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1590,10 +1586,10 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F9" s="2">
@@ -1601,9 +1597,9 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" hidden="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1611,10 +1607,10 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="2">
@@ -1622,51 +1618,51 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" hidden="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" hidden="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" ht="30">
+      <c r="H12" s="36"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="30" hidden="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>29</v>
@@ -1674,10 +1670,10 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F13" s="2">
@@ -1685,9 +1681,9 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" ht="33" customHeight="1">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="33" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1697,10 +1693,10 @@
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="2">
@@ -1708,9 +1704,9 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" customFormat="1">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" hidden="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -1718,10 +1714,10 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F15" s="2">
@@ -1729,30 +1725,30 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29" t="s">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>0</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>0</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" customFormat="1">
+      <c r="H16" s="36"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" hidden="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>37</v>
@@ -1760,10 +1756,10 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F17" s="2">
@@ -1771,284 +1767,284 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="30" hidden="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="23">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="41" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="30" hidden="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="23">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="41" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" hidden="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="23">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="41" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="22">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" hidden="1" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="23">
-        <v>2</v>
-      </c>
-      <c r="F21" s="29">
-        <v>2</v>
-      </c>
-      <c r="G21" s="39" t="s">
+      <c r="E21" s="22">
+        <v>2</v>
+      </c>
+      <c r="F21" s="28">
+        <v>2</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="30" hidden="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="23">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2</v>
-      </c>
-      <c r="G22" s="41" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" hidden="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="29">
-        <v>2</v>
-      </c>
-      <c r="G23" s="39" t="s">
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="28">
+        <v>2</v>
+      </c>
+      <c r="G23" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" hidden="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="29">
-        <v>2</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" s="28">
+        <v>2</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" hidden="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29" t="s">
+      <c r="H24" s="36"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="23">
-        <v>2</v>
-      </c>
-      <c r="F25" s="29">
-        <v>2</v>
-      </c>
-      <c r="G25" s="39" t="s">
+      <c r="E25" s="22">
+        <v>2</v>
+      </c>
+      <c r="F25" s="28">
+        <v>2</v>
+      </c>
+      <c r="G25" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" hidden="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29" t="s">
+      <c r="H25" s="36"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="23">
-        <v>2</v>
-      </c>
-      <c r="F26" s="29">
-        <v>2</v>
-      </c>
-      <c r="G26" s="39" t="s">
+      <c r="E26" s="22">
+        <v>2</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" hidden="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="F27" s="29">
-        <v>2</v>
-      </c>
-      <c r="G27" s="39" t="s">
+      <c r="E27" s="22">
+        <v>2</v>
+      </c>
+      <c r="F27" s="28">
+        <v>2</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" hidden="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29" t="s">
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="23">
-        <v>2</v>
-      </c>
-      <c r="F28" s="29">
-        <v>2</v>
-      </c>
-      <c r="G28" s="39" t="s">
+      <c r="E28" s="22">
+        <v>2</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="30" hidden="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="23">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2</v>
-      </c>
-      <c r="G29" s="41" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="30" hidden="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="23">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="41" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="H30" s="36"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="29.25" hidden="1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2058,10 +2054,10 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F31" s="2">
@@ -2069,9 +2065,9 @@
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" customFormat="1">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" hidden="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>56</v>
@@ -2079,10 +2075,10 @@
       <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="2">
@@ -2090,30 +2086,30 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" hidden="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29" t="s">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="23">
-        <v>2</v>
-      </c>
-      <c r="F33" s="29">
+      <c r="E33" s="22">
+        <v>2</v>
+      </c>
+      <c r="F33" s="28">
         <v>0</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" customFormat="1">
+      <c r="H33" s="36"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>59</v>
@@ -2121,10 +2117,10 @@
       <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="21" t="s">
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F34" s="2">
@@ -2132,93 +2128,93 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" hidden="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="22">
-        <v>3</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="41" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="30" hidden="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="22">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2</v>
-      </c>
-      <c r="G36" s="41" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="21">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29" t="s">
+      <c r="H36" s="36"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E37" s="24">
-        <v>2</v>
-      </c>
-      <c r="F37" s="29">
-        <v>2</v>
-      </c>
-      <c r="G37" s="39" t="s">
+      <c r="E37" s="23">
+        <v>2</v>
+      </c>
+      <c r="F37" s="28">
+        <v>2</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" hidden="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="23">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6">
-        <v>2</v>
-      </c>
-      <c r="G38" s="41" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="22">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2</v>
+      </c>
+      <c r="G38" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="H38" s="36"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2231,7 +2227,7 @@
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F39" s="2">
@@ -2239,9 +2235,9 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" customFormat="1">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" hidden="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>68</v>
@@ -2252,7 +2248,7 @@
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F40" s="2">
@@ -2260,30 +2256,30 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" hidden="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29" t="s">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="23">
-        <v>2</v>
-      </c>
-      <c r="F41" s="29">
+      <c r="E41" s="22">
+        <v>2</v>
+      </c>
+      <c r="F41" s="28">
         <v>1</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="1:9" customFormat="1">
+      <c r="H41" s="36"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" hidden="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>71</v>
@@ -2294,353 +2290,353 @@
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" hidden="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="24">
-        <v>2</v>
-      </c>
-      <c r="F43" s="29">
-        <v>2</v>
-      </c>
-      <c r="G43" s="39" t="s">
+      <c r="E43" s="23">
+        <v>2</v>
+      </c>
+      <c r="F43" s="28">
+        <v>2</v>
+      </c>
+      <c r="G43" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" hidden="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
+      <c r="H43" s="36"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="23">
-        <v>2</v>
-      </c>
-      <c r="F44" s="29">
-        <v>2</v>
-      </c>
-      <c r="G44" s="39" t="s">
+      <c r="E44" s="22">
+        <v>2</v>
+      </c>
+      <c r="F44" s="28">
+        <v>2</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9" hidden="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
+      <c r="H44" s="36"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="23">
-        <v>2</v>
-      </c>
-      <c r="F45" s="29">
-        <v>2</v>
-      </c>
-      <c r="G45" s="39" t="s">
+      <c r="E45" s="22">
+        <v>2</v>
+      </c>
+      <c r="F45" s="28">
+        <v>2</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" ht="30" hidden="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="23">
-        <v>3</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="41" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="22">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" hidden="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29" t="s">
+      <c r="H46" s="36"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="24">
-        <v>2</v>
-      </c>
-      <c r="F47" s="29">
-        <v>3</v>
-      </c>
-      <c r="G47" s="39" t="s">
+      <c r="E47" s="23">
+        <v>2</v>
+      </c>
+      <c r="F47" s="28">
+        <v>3</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" hidden="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
+      <c r="H47" s="36"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="24">
-        <v>2</v>
-      </c>
-      <c r="F48" s="29">
-        <v>2</v>
-      </c>
-      <c r="G48" s="39" t="s">
+      <c r="E48" s="23">
+        <v>2</v>
+      </c>
+      <c r="F48" s="28">
+        <v>2</v>
+      </c>
+      <c r="G48" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" hidden="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="22">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" s="40" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="21">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" hidden="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="22">
-        <v>3</v>
-      </c>
-      <c r="F50" s="5">
-        <v>3</v>
-      </c>
-      <c r="G50" s="40" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3</v>
+      </c>
+      <c r="G50" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" hidden="1">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="24">
-        <v>3</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2</v>
-      </c>
-      <c r="G51" s="41" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="23">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="35"/>
-    </row>
-    <row r="52" spans="1:9" hidden="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29" t="s">
+      <c r="H51" s="36"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E52" s="24">
-        <v>2</v>
-      </c>
-      <c r="F52" s="29">
-        <v>2</v>
-      </c>
-      <c r="G52" s="39" t="s">
+      <c r="E52" s="23">
+        <v>2</v>
+      </c>
+      <c r="F52" s="28">
+        <v>2</v>
+      </c>
+      <c r="G52" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="35"/>
-    </row>
-    <row r="53" spans="1:9" hidden="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29" t="s">
+      <c r="H52" s="36"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <v>2</v>
       </c>
       <c r="F53" s="2">
         <v>3</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" hidden="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="23">
-        <v>3</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2</v>
-      </c>
-      <c r="G54" s="41" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="22">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="35"/>
-    </row>
-    <row r="55" spans="1:9" hidden="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29" t="s">
+      <c r="H54" s="36"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="24">
-        <v>2</v>
-      </c>
-      <c r="F55" s="29">
-        <v>3</v>
-      </c>
-      <c r="G55" s="39" t="s">
+      <c r="E55" s="23">
+        <v>2</v>
+      </c>
+      <c r="F55" s="28">
+        <v>3</v>
+      </c>
+      <c r="G55" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H55" s="37"/>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" spans="1:9" hidden="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29" t="s">
+      <c r="H55" s="36"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="24">
-        <v>2</v>
-      </c>
-      <c r="F56" s="29">
-        <v>3</v>
-      </c>
-      <c r="G56" s="39" t="s">
+      <c r="E56" s="23">
+        <v>2</v>
+      </c>
+      <c r="F56" s="28">
+        <v>3</v>
+      </c>
+      <c r="G56" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="35"/>
-    </row>
-    <row r="57" spans="1:9" hidden="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29" t="s">
+      <c r="H56" s="36"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="24">
-        <v>2</v>
-      </c>
-      <c r="F57" s="29">
-        <v>2</v>
-      </c>
-      <c r="G57" s="39" t="s">
+      <c r="E57" s="23">
+        <v>2</v>
+      </c>
+      <c r="F57" s="28">
+        <v>2</v>
+      </c>
+      <c r="G57" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" hidden="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="24">
-        <v>3</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3</v>
-      </c>
-      <c r="G58" s="41" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="23">
+        <v>3</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
+      </c>
+      <c r="G58" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="25.5" customHeight="1">
+      <c r="H58" s="36"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -2650,10 +2646,10 @@
       <c r="C59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F59" s="2">
@@ -2661,9 +2657,9 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" customFormat="1">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" hidden="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -2671,10 +2667,10 @@
       <c r="C60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F60" s="2">
@@ -2682,30 +2678,30 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" hidden="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29" t="s">
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="23">
-        <v>2</v>
-      </c>
-      <c r="F61" s="29">
+      <c r="E61" s="22">
+        <v>2</v>
+      </c>
+      <c r="F61" s="28">
         <v>0</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H61" s="37"/>
-      <c r="I61" s="35"/>
-    </row>
-    <row r="62" spans="1:9" customFormat="1">
+      <c r="H61" s="36"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" hidden="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>95</v>
@@ -2713,10 +2709,10 @@
       <c r="C62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="21" t="s">
+      <c r="D62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F62" s="2">
@@ -2724,227 +2720,227 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" hidden="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29" t="s">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="23">
-        <v>2</v>
-      </c>
-      <c r="F63" s="29">
-        <v>2</v>
-      </c>
-      <c r="G63" s="39" t="s">
+      <c r="E63" s="22">
+        <v>2</v>
+      </c>
+      <c r="F63" s="28">
+        <v>2</v>
+      </c>
+      <c r="G63" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H63" s="37"/>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" spans="1:9" hidden="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29" t="s">
+      <c r="H63" s="36"/>
+      <c r="I63" s="34"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29" t="s">
+      <c r="C64" s="28"/>
+      <c r="D64" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="23">
-        <v>2</v>
-      </c>
-      <c r="F64" s="29">
-        <v>2</v>
-      </c>
-      <c r="G64" s="39" t="s">
+      <c r="E64" s="22">
+        <v>2</v>
+      </c>
+      <c r="F64" s="28">
+        <v>2</v>
+      </c>
+      <c r="G64" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" hidden="1">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="22">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6">
-        <v>2</v>
-      </c>
-      <c r="G65" s="40" t="s">
+      <c r="C65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="35"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" ht="30" hidden="1">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="22">
-        <v>3</v>
-      </c>
-      <c r="F66" s="6">
-        <v>2</v>
-      </c>
-      <c r="G66" s="41" t="s">
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="21">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
+      <c r="G66" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" hidden="1">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="22">
-        <v>3</v>
-      </c>
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-      <c r="G67" s="41" t="s">
+      <c r="C67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="21">
+        <v>3</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29" t="s">
+      <c r="H67" s="36"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30" t="s">
+      <c r="C68" s="28"/>
+      <c r="D68" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E68" s="24">
-        <v>2</v>
-      </c>
-      <c r="F68" s="29">
-        <v>2</v>
-      </c>
-      <c r="G68" s="39" t="s">
+      <c r="E68" s="23">
+        <v>2</v>
+      </c>
+      <c r="F68" s="28">
+        <v>2</v>
+      </c>
+      <c r="G68" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="35"/>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29" t="s">
+      <c r="H68" s="36"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="24">
-        <v>2</v>
-      </c>
-      <c r="F69" s="29">
-        <v>3</v>
-      </c>
-      <c r="G69" s="39" t="s">
+      <c r="E69" s="23">
+        <v>2</v>
+      </c>
+      <c r="F69" s="28">
+        <v>3</v>
+      </c>
+      <c r="G69" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="70" spans="1:9" ht="21" hidden="1" customHeight="1">
-      <c r="A70" s="29" t="s">
+      <c r="H69" s="36"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A70" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E70" s="24">
-        <v>2</v>
-      </c>
-      <c r="F70" s="29">
-        <v>2</v>
-      </c>
-      <c r="G70" s="39" t="s">
+      <c r="E70" s="23">
+        <v>2</v>
+      </c>
+      <c r="F70" s="28">
+        <v>2</v>
+      </c>
+      <c r="G70" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:9" hidden="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29" t="s">
+      <c r="H70" s="36"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="24">
-        <v>2</v>
-      </c>
-      <c r="F71" s="29">
-        <v>2</v>
-      </c>
-      <c r="G71" s="39" t="s">
+      <c r="E71" s="23">
+        <v>2</v>
+      </c>
+      <c r="F71" s="28">
+        <v>2</v>
+      </c>
+      <c r="G71" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" spans="1:9" hidden="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29" t="s">
+      <c r="H71" s="36"/>
+      <c r="I71" s="34"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="24">
-        <v>2</v>
-      </c>
-      <c r="F72" s="29">
-        <v>2</v>
-      </c>
-      <c r="G72" s="43" t="s">
+      <c r="E72" s="23">
+        <v>2</v>
+      </c>
+      <c r="F72" s="28">
+        <v>2</v>
+      </c>
+      <c r="G72" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="H72" s="36"/>
+      <c r="I72" s="34"/>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -2954,10 +2950,10 @@
       <c r="C73" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="21" t="s">
+      <c r="D73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F73" s="2">
@@ -2965,9 +2961,9 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" customFormat="1">
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" hidden="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>110</v>
@@ -2975,10 +2971,10 @@
       <c r="C74" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="21" t="s">
+      <c r="D74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F74" s="2">
@@ -2986,9 +2982,9 @@
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" customFormat="1">
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" hidden="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -2996,10 +2992,10 @@
       <c r="C75" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F75" s="2">
@@ -3007,30 +3003,30 @@
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29" t="s">
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="24">
-        <v>3</v>
-      </c>
-      <c r="F76" s="29">
-        <v>2</v>
-      </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="35"/>
-    </row>
-    <row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="D76" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="23">
+        <v>3</v>
+      </c>
+      <c r="F76" s="28">
+        <v>2</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="34"/>
+    </row>
+    <row r="77" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -3040,10 +3036,10 @@
       <c r="C77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="21" t="s">
+      <c r="D77" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F77" s="2">
@@ -3051,55 +3047,55 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="22">
-        <v>3</v>
-      </c>
-      <c r="F78" s="6">
-        <v>2</v>
-      </c>
-      <c r="G78" s="12" t="s">
+      <c r="C78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="21">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="24">
-        <v>3</v>
-      </c>
-      <c r="F79" s="6">
-        <v>3</v>
-      </c>
-      <c r="G79" s="41" t="s">
+      <c r="C79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="23">
+        <v>3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>3</v>
+      </c>
+      <c r="G79" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="H79" s="37"/>
-      <c r="I79" s="35"/>
-    </row>
-    <row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H79" s="36"/>
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>118</v>
@@ -3107,10 +3103,10 @@
       <c r="C80" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="21" t="s">
+      <c r="D80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F80" s="2">
@@ -3118,9 +3114,9 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>120</v>
@@ -3128,10 +3124,10 @@
       <c r="C81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="21" t="s">
+      <c r="D81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F81" s="2">
@@ -3139,9 +3135,9 @@
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>122</v>
@@ -3149,10 +3145,10 @@
       <c r="C82" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="21" t="s">
+      <c r="D82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F82" s="2">
@@ -3160,9 +3156,9 @@
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>124</v>
@@ -3170,10 +3166,10 @@
       <c r="C83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F83" s="2">
@@ -3181,53 +3177,53 @@
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="22">
-        <v>3</v>
-      </c>
-      <c r="F84" s="5">
-        <v>2</v>
-      </c>
-      <c r="G84" s="40" t="s">
+      <c r="C84" s="4"/>
+      <c r="D84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="21">
+        <v>3</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="35"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A85" s="29" t="s">
+      <c r="H84" s="36"/>
+      <c r="I84" s="34"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1">
+      <c r="A85" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="28"/>
+      <c r="D85" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E85" s="23">
-        <v>2</v>
-      </c>
-      <c r="F85" s="29">
+      <c r="E85" s="22">
+        <v>2</v>
+      </c>
+      <c r="F85" s="28">
         <v>1</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H85" s="36"/>
+      <c r="I85" s="34"/>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>129</v>
@@ -3235,10 +3231,10 @@
       <c r="C86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="21" t="s">
+      <c r="D86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F86" s="2">
@@ -3246,76 +3242,76 @@
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="29" t="s">
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1">
+      <c r="A87" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30" t="s">
+      <c r="C87" s="28"/>
+      <c r="D87" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E87" s="25">
-        <v>3</v>
-      </c>
-      <c r="F87" s="29">
-        <v>2</v>
-      </c>
-      <c r="G87" s="39" t="s">
+      <c r="E87" s="24">
+        <v>3</v>
+      </c>
+      <c r="F87" s="28">
+        <v>2</v>
+      </c>
+      <c r="G87" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="35"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="25">
-        <v>3</v>
-      </c>
-      <c r="F88" s="6">
-        <v>2</v>
-      </c>
-      <c r="G88" s="41" t="s">
+      <c r="C88" s="5"/>
+      <c r="D88" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="24">
+        <v>3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2</v>
+      </c>
+      <c r="G88" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="H88" s="37"/>
-      <c r="I88" s="35"/>
-    </row>
-    <row r="89" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H88" s="36"/>
+      <c r="I88" s="34"/>
+    </row>
+    <row r="89" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="28" t="s">
+      <c r="D89" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="28">
         <v>1</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
         <v>136</v>
@@ -3323,10 +3319,10 @@
       <c r="C90" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="21" t="s">
+      <c r="D90" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F90" s="2">
@@ -3334,9 +3330,9 @@
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>137</v>
@@ -3344,10 +3340,10 @@
       <c r="C91" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D91" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="21" t="s">
+      <c r="D91" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F91" s="2">
@@ -3355,309 +3351,309 @@
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="8"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="25">
-        <v>3</v>
-      </c>
-      <c r="F92" s="6">
-        <v>2</v>
-      </c>
-      <c r="G92" s="41" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="24">
+        <v>3</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2</v>
+      </c>
+      <c r="G92" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="H92" s="37"/>
-      <c r="I92" s="35"/>
-    </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1">
-      <c r="A93" s="29" t="s">
+      <c r="H92" s="36"/>
+      <c r="I92" s="34"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A93" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="31">
-        <v>2</v>
-      </c>
-      <c r="F93" s="29">
+      <c r="D93" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="30">
+        <v>2</v>
+      </c>
+      <c r="F93" s="28">
         <v>1</v>
       </c>
-      <c r="G93" s="29"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="35"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29" t="s">
+      <c r="G93" s="28"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="34"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D94" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="24">
-        <v>2</v>
-      </c>
-      <c r="F94" s="29">
-        <v>2</v>
-      </c>
-      <c r="G94" s="29"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="35"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29" t="s">
+      <c r="D94" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="23">
+        <v>2</v>
+      </c>
+      <c r="F94" s="28">
+        <v>2</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="34"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="24">
-        <v>2</v>
-      </c>
-      <c r="F95" s="29">
-        <v>2</v>
-      </c>
-      <c r="G95" s="29"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="35"/>
+      <c r="D95" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="23">
+        <v>2</v>
+      </c>
+      <c r="F95" s="28">
+        <v>2</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="23">
-        <v>3</v>
-      </c>
-      <c r="F96" s="6">
-        <v>2</v>
-      </c>
-      <c r="G96" s="41" t="s">
+      <c r="C96" s="8"/>
+      <c r="D96" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="22">
+        <v>3</v>
+      </c>
+      <c r="F96" s="5">
+        <v>2</v>
+      </c>
+      <c r="G96" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="H96" s="37"/>
-      <c r="I96" s="35"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="34"/>
     </row>
     <row r="97" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="24">
-        <v>2</v>
-      </c>
-      <c r="F97" s="6">
-        <v>2</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="C97" s="5"/>
+      <c r="D97" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="23">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5">
+        <v>2</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H97" s="37"/>
-      <c r="I97" s="35"/>
-    </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29" t="s">
+      <c r="H97" s="36"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="24">
-        <v>2</v>
-      </c>
-      <c r="F98" s="29">
-        <v>2</v>
-      </c>
-      <c r="G98" s="29"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="35"/>
-    </row>
-    <row r="99" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29" t="s">
+      <c r="D98" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="23">
+        <v>2</v>
+      </c>
+      <c r="F98" s="28">
+        <v>2</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30" t="s">
+      <c r="C99" s="28"/>
+      <c r="D99" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="23">
-        <v>3</v>
-      </c>
-      <c r="F99" s="29">
-        <v>2</v>
-      </c>
-      <c r="G99" s="39" t="s">
+      <c r="E99" s="22">
+        <v>3</v>
+      </c>
+      <c r="F99" s="28">
+        <v>2</v>
+      </c>
+      <c r="G99" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="H99" s="37"/>
-      <c r="I99" s="35"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="34"/>
     </row>
     <row r="100" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="23">
-        <v>2</v>
-      </c>
-      <c r="F100" s="6">
-        <v>3</v>
-      </c>
-      <c r="G100" s="45" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="22">
+        <v>2</v>
+      </c>
+      <c r="F100" s="5">
+        <v>3</v>
+      </c>
+      <c r="G100" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="H100" s="37"/>
-      <c r="I100" s="35"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29" t="s">
+      <c r="H100" s="36"/>
+      <c r="I100" s="34"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D101" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="23">
-        <v>2</v>
-      </c>
-      <c r="F101" s="29">
-        <v>2</v>
-      </c>
-      <c r="G101" s="38"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="35"/>
+      <c r="D101" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="22">
+        <v>2</v>
+      </c>
+      <c r="F101" s="28">
+        <v>2</v>
+      </c>
+      <c r="G101" s="37"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="34"/>
     </row>
     <row r="102" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="23">
-        <v>3</v>
-      </c>
-      <c r="F102" s="6">
-        <v>2</v>
-      </c>
-      <c r="G102" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" s="37"/>
-      <c r="I102" s="35"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="22">
+        <v>3</v>
+      </c>
+      <c r="F102" s="5">
+        <v>2</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="34"/>
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E103" s="23">
-        <v>2</v>
-      </c>
-      <c r="F103" s="6">
-        <v>2</v>
-      </c>
-      <c r="G103" s="40" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="22">
+        <v>2</v>
+      </c>
+      <c r="F103" s="5">
+        <v>2</v>
+      </c>
+      <c r="G103" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H103" s="37"/>
-      <c r="I103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="34"/>
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" s="24">
-        <v>2</v>
-      </c>
-      <c r="F104" s="6">
-        <v>2</v>
-      </c>
-      <c r="G104" s="41" t="s">
+      <c r="C104" s="5"/>
+      <c r="D104" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="23">
+        <v>2</v>
+      </c>
+      <c r="F104" s="5">
+        <v>2</v>
+      </c>
+      <c r="G104" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H104" s="37"/>
-      <c r="I104" s="35"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="24">
-        <v>2</v>
-      </c>
-      <c r="F105" s="6">
-        <v>2</v>
-      </c>
-      <c r="G105" s="41" t="s">
+      <c r="C105" s="5"/>
+      <c r="D105" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="23">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5">
+        <v>2</v>
+      </c>
+      <c r="G105" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H105" s="37"/>
-      <c r="I105" s="35"/>
-    </row>
-    <row r="106" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H105" s="36"/>
+      <c r="I105" s="34"/>
+    </row>
+    <row r="106" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -3667,10 +3663,10 @@
       <c r="C106" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="21" t="s">
+      <c r="D106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F106" s="2">
@@ -3678,9 +3674,9 @@
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>157</v>
@@ -3691,7 +3687,7 @@
       <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E107" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F107" s="2">
@@ -3699,209 +3695,209 @@
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="23">
-        <v>3</v>
-      </c>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
-      <c r="G108" s="40" t="s">
+      <c r="C108" s="5"/>
+      <c r="D108" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="22">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5">
+        <v>2</v>
+      </c>
+      <c r="G108" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="H108" s="37"/>
-      <c r="I108" s="35"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="34"/>
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" s="23">
-        <v>3</v>
-      </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="41" t="s">
+      <c r="C109" s="5"/>
+      <c r="D109" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="22">
+        <v>3</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H109" s="37"/>
-      <c r="I109" s="35"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="34"/>
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="23">
-        <v>3</v>
-      </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="41" t="s">
+      <c r="C110" s="5"/>
+      <c r="D110" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="22">
+        <v>3</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H110" s="37"/>
-      <c r="I110" s="35"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="23">
-        <v>3</v>
-      </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="41" t="s">
+      <c r="C111" s="5"/>
+      <c r="D111" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="22">
+        <v>3</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H111" s="37"/>
-      <c r="I111" s="35"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="34"/>
     </row>
     <row r="112" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="23">
-        <v>3</v>
-      </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="41" t="s">
+      <c r="C112" s="5"/>
+      <c r="D112" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="22">
+        <v>3</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H112" s="37"/>
-      <c r="I112" s="35"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="34"/>
     </row>
     <row r="113" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="23">
-        <v>3</v>
-      </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="41" t="s">
+      <c r="C113" s="5"/>
+      <c r="D113" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="22">
+        <v>3</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H113" s="37"/>
-      <c r="I113" s="35"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="34"/>
     </row>
     <row r="114" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="23">
-        <v>3</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="41" t="s">
+      <c r="C114" s="5"/>
+      <c r="D114" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="22">
+        <v>3</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H114" s="37"/>
-      <c r="I114" s="35"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="23">
-        <v>3</v>
-      </c>
-      <c r="F115" s="6"/>
-      <c r="G115" s="41" t="s">
+      <c r="C115" s="5"/>
+      <c r="D115" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="22">
+        <v>3</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="H115" s="37"/>
-      <c r="I115" s="35"/>
-    </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1">
-      <c r="A116" s="29" t="s">
+      <c r="H115" s="36"/>
+      <c r="I115" s="34"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A116" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="23">
+      <c r="D116" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="22">
         <v>0</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F116" s="28">
         <v>0</v>
       </c>
-      <c r="G116" s="38"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="35"/>
-    </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29" t="s">
+      <c r="G116" s="37"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="34"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="D117" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="23">
+      <c r="D117" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="22">
         <v>0</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F117" s="28">
         <v>0</v>
       </c>
-      <c r="G117" s="38"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="35"/>
-    </row>
-    <row r="118" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="G117" s="37"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="34"/>
+    </row>
+    <row r="118" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>163</v>
@@ -3909,10 +3905,10 @@
       <c r="C118" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="21" t="s">
+      <c r="D118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F118" s="2">
@@ -3920,9 +3916,9 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="8"/>
-    </row>
-    <row r="119" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>164</v>
@@ -3930,10 +3926,10 @@
       <c r="C119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D119" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="21" t="s">
+      <c r="D119" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F119" s="2">
@@ -3941,93 +3937,93 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="8"/>
-    </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29" t="s">
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D120" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="23">
+      <c r="D120" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="22">
         <v>1</v>
       </c>
-      <c r="F120" s="29">
-        <v>2</v>
-      </c>
-      <c r="G120" s="29"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="35"/>
+      <c r="F120" s="28">
+        <v>2</v>
+      </c>
+      <c r="G120" s="28"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="5" t="s">
+      <c r="A121" s="5"/>
+      <c r="B121" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="23">
-        <v>2</v>
-      </c>
-      <c r="F121" s="6">
+      <c r="C121" s="5"/>
+      <c r="D121" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="22">
+        <v>2</v>
+      </c>
+      <c r="F121" s="5">
         <v>1</v>
       </c>
-      <c r="G121" s="40" t="s">
+      <c r="G121" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H121" s="37"/>
-      <c r="I121" s="35"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="34"/>
     </row>
     <row r="122" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5" t="s">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="23">
-        <v>3</v>
-      </c>
-      <c r="F122" s="6">
+      <c r="C122" s="5"/>
+      <c r="D122" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="22">
+        <v>3</v>
+      </c>
+      <c r="F122" s="5">
         <v>1</v>
       </c>
-      <c r="G122" s="41" t="s">
+      <c r="G122" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H122" s="37"/>
-      <c r="I122" s="35"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="34"/>
     </row>
     <row r="123" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="23">
-        <v>3</v>
-      </c>
-      <c r="F123" s="6">
+      <c r="C123" s="5"/>
+      <c r="D123" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="22">
+        <v>3</v>
+      </c>
+      <c r="F123" s="5">
         <v>1</v>
       </c>
-      <c r="G123" s="41" t="s">
+      <c r="G123" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="H123" s="37"/>
-      <c r="I123" s="35"/>
-    </row>
-    <row r="124" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H123" s="36"/>
+      <c r="I123" s="34"/>
+    </row>
+    <row r="124" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>169</v>
@@ -4035,10 +4031,10 @@
       <c r="C124" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="21" t="s">
+      <c r="D124" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F124" s="2">
@@ -4046,49 +4042,49 @@
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="23">
-        <v>3</v>
-      </c>
-      <c r="F125" s="6">
-        <v>2</v>
-      </c>
-      <c r="G125" s="40" t="s">
+      <c r="C125" s="5"/>
+      <c r="D125" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="22">
+        <v>3</v>
+      </c>
+      <c r="F125" s="5">
+        <v>2</v>
+      </c>
+      <c r="G125" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="H125" s="37"/>
-      <c r="I125" s="35"/>
-    </row>
-    <row r="126" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H125" s="36"/>
+      <c r="I125" s="34"/>
+    </row>
+    <row r="126" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="23">
-        <v>2</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="17" t="s">
+      <c r="C126" s="5"/>
+      <c r="D126" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="22">
+        <v>2</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="16" t="s">
         <v>209</v>
       </c>
       <c r="H126" s="3"/>
-      <c r="I126" s="8"/>
-    </row>
-    <row r="127" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>171</v>
@@ -4096,10 +4092,10 @@
       <c r="C127" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="24" t="s">
+      <c r="D127" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F127" s="2">
@@ -4107,72 +4103,72 @@
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="8"/>
-    </row>
-    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29" t="s">
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" ht="15" customHeight="1">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="30" t="s">
+      <c r="C128" s="28"/>
+      <c r="D128" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E128" s="24">
-        <v>2</v>
-      </c>
-      <c r="F128" s="29">
-        <v>2</v>
-      </c>
-      <c r="G128" s="29" t="s">
+      <c r="E128" s="23">
+        <v>2</v>
+      </c>
+      <c r="F128" s="28">
+        <v>2</v>
+      </c>
+      <c r="G128" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H128" s="37"/>
-      <c r="I128" s="35"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="34"/>
     </row>
     <row r="129" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="23">
-        <v>3</v>
-      </c>
-      <c r="F129" s="6">
-        <v>3</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="C129" s="5"/>
+      <c r="D129" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="22">
+        <v>3</v>
+      </c>
+      <c r="F129" s="5">
+        <v>3</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H129" s="37"/>
-      <c r="I129" s="35"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="34"/>
     </row>
     <row r="130" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="23">
-        <v>2</v>
-      </c>
-      <c r="F130" s="6">
+      <c r="C130" s="5"/>
+      <c r="D130" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="22">
+        <v>2</v>
+      </c>
+      <c r="F130" s="5">
         <v>1</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H130" s="37"/>
-      <c r="I130" s="35"/>
-    </row>
-    <row r="131" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="H130" s="36"/>
+      <c r="I130" s="34"/>
+    </row>
+    <row r="131" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>185</v>
@@ -4180,10 +4176,10 @@
       <c r="C131" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="24" t="s">
+      <c r="D131" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="23" t="s">
         <v>201</v>
       </c>
       <c r="F131" s="2">
@@ -4191,9 +4187,9 @@
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="8"/>
-    </row>
-    <row r="132" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>186</v>
@@ -4201,10 +4197,10 @@
       <c r="C132" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="24" t="s">
+      <c r="D132" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="2">
@@ -4212,98 +4208,98 @@
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="8"/>
+      <c r="I132" s="7"/>
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5" t="s">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E133" s="24">
-        <v>2</v>
-      </c>
-      <c r="F133" s="6">
-        <v>3</v>
-      </c>
-      <c r="G133" s="5" t="s">
+      <c r="C133" s="5"/>
+      <c r="D133" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="23">
+        <v>2</v>
+      </c>
+      <c r="F133" s="5">
+        <v>3</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H133" s="37"/>
-      <c r="I133" s="35"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5" t="s">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="24">
-        <v>3</v>
-      </c>
-      <c r="F134" s="6">
-        <v>2</v>
-      </c>
-      <c r="G134" s="5" t="s">
+      <c r="C134" s="5"/>
+      <c r="D134" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="23">
+        <v>3</v>
+      </c>
+      <c r="F134" s="5">
+        <v>2</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H134" s="37"/>
-      <c r="I134" s="35"/>
-    </row>
-    <row r="135" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29" t="s">
+      <c r="H134" s="36"/>
+      <c r="I134" s="34"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" customHeight="1">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C135" s="29"/>
-      <c r="D135" s="30" t="s">
+      <c r="C135" s="28"/>
+      <c r="D135" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E135" s="24">
+      <c r="E135" s="23">
         <v>1</v>
       </c>
-      <c r="F135" s="29">
-        <v>3</v>
-      </c>
-      <c r="G135" s="29"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="35"/>
-    </row>
-    <row r="136" spans="1:9" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29" t="s">
+      <c r="F135" s="28">
+        <v>3</v>
+      </c>
+      <c r="G135" s="28"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="34"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" customHeight="1">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C136" s="29"/>
-      <c r="D136" s="30" t="s">
+      <c r="C136" s="28"/>
+      <c r="D136" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="E136" s="24">
-        <v>2</v>
-      </c>
-      <c r="F136" s="29">
-        <v>2</v>
-      </c>
-      <c r="G136" s="29"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="35"/>
+      <c r="E136" s="23">
+        <v>2</v>
+      </c>
+      <c r="F136" s="28">
+        <v>2</v>
+      </c>
+      <c r="G136" s="28"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="34"/>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1">
-      <c r="C137" s="36"/>
-      <c r="F137" s="36"/>
+      <c r="C137" s="35"/>
+      <c r="F137" s="35"/>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Completed"/>
+        <filter val="Planning"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485D82D-9137-4AFF-9D22-D8919574848C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4841E-DA2B-4936-9AAB-DF0B8FA74009}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,13 +1380,13 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.85546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="35" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="35" bestFit="1" customWidth="1"/>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4841E-DA2B-4936-9AAB-DF0B8FA74009}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17042C35-0E7E-4228-A71C-35CE148521D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,9 +673,6 @@
     <t>special server</t>
   </si>
   <si>
-    <t>select_theme</t>
-  </si>
-  <si>
     <t>Planning</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>app_launch</t>
+  </si>
+  <si>
+    <t>settings_theme</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1380,8 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1475,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="22">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="34"/>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="34"/>
@@ -1806,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E21" s="22">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="34"/>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="34"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23" s="22">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="34"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="22">
         <v>2</v>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="36"/>
       <c r="I24" s="34"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="22">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="34"/>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="22">
         <v>2</v>
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="34"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="22">
         <v>2</v>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="34"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="22">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="34"/>
@@ -2018,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H29" s="36"/>
       <c r="I29" s="34"/>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H30" s="36"/>
       <c r="I30" s="34"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="22">
         <v>2</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="34"/>
@@ -2146,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="34"/>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="34"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E37" s="23">
         <v>2</v>
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="34"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="22">
         <v>2</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="34"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="23">
         <v>2</v>
@@ -2316,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H43" s="36"/>
       <c r="I43" s="34"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E44" s="22">
         <v>2</v>
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H44" s="36"/>
       <c r="I44" s="34"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" s="22">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="34"/>
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H46" s="36"/>
       <c r="I46" s="34"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="23">
         <v>2</v>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H47" s="36"/>
       <c r="I47" s="34"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="23">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="34"/>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H49" s="36"/>
       <c r="I49" s="34"/>
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H50" s="36"/>
       <c r="I50" s="34"/>
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H51" s="36"/>
       <c r="I51" s="34"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="23">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H52" s="36"/>
       <c r="I52" s="34"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="23">
         <v>2</v>
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H53" s="36"/>
       <c r="I53" s="34"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E55" s="23">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" s="34"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E56" s="23">
         <v>2</v>
@@ -2589,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H56" s="36"/>
       <c r="I56" s="34"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="23">
         <v>2</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="34"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E61" s="22">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H61" s="36"/>
       <c r="I61" s="34"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E63" s="22">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H63" s="36"/>
       <c r="I63" s="34"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E64" s="22">
         <v>2</v>
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="34"/>
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H66" s="36"/>
       <c r="I66" s="34"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="23">
         <v>2</v>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="34"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C69" s="28"/>
       <c r="D69" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E69" s="23">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H69" s="36"/>
       <c r="I69" s="34"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70" s="23">
         <v>2</v>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H70" s="36"/>
       <c r="I70" s="34"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E71" s="23">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="34"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C72" s="28"/>
       <c r="D72" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="23">
         <v>2</v>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H72" s="36"/>
       <c r="I72" s="34"/>
@@ -3011,7 +3011,7 @@
         <v>112</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76" s="48" t="s">
         <v>9</v>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" s="36"/>
       <c r="I78" s="34"/>
@@ -3090,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H79" s="36"/>
       <c r="I79" s="34"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C85" s="28"/>
       <c r="D85" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85" s="22">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="34"/>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="24">
         <v>3</v>
@@ -3262,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H87" s="36"/>
       <c r="I87" s="34"/>
@@ -3283,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H88" s="36"/>
       <c r="I88" s="34"/>
@@ -3296,7 +3296,7 @@
         <v>135</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>9</v>
@@ -3317,7 +3317,7 @@
         <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D90" s="26" t="s">
         <v>9</v>
@@ -3338,7 +3338,7 @@
         <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="26" t="s">
         <v>9</v>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H92" s="36"/>
       <c r="I92" s="34"/>
@@ -3382,7 +3382,7 @@
         <v>140</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>9</v>
@@ -3403,7 +3403,7 @@
         <v>141</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D94" s="29" t="s">
         <v>9</v>
@@ -3424,7 +3424,7 @@
         <v>142</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>9</v>
@@ -3455,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H96" s="36"/>
       <c r="I96" s="34"/>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H97" s="36"/>
       <c r="I97" s="34"/>
@@ -3487,7 +3487,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D98" s="43" t="s">
         <v>9</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E99" s="22">
         <v>3</v>
@@ -3518,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H99" s="36"/>
       <c r="I99" s="34"/>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H100" s="36"/>
       <c r="I100" s="34"/>
@@ -3550,7 +3550,7 @@
         <v>148</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D101" s="29" t="s">
         <v>9</v>
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H104" s="36"/>
       <c r="I104" s="34"/>
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="34"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H109" s="36"/>
       <c r="I109" s="34"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="34"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="34"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="34"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H113" s="36"/>
       <c r="I113" s="34"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H114" s="36"/>
       <c r="I114" s="34"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H115" s="36"/>
       <c r="I115" s="34"/>
@@ -3861,7 +3861,7 @@
         <v>161</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D116" s="29" t="s">
         <v>9</v>
@@ -3882,7 +3882,7 @@
         <v>162</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>9</v>
@@ -3945,7 +3945,7 @@
         <v>165</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D120" s="49" t="s">
         <v>9</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H122" s="36"/>
       <c r="I122" s="34"/>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H123" s="36"/>
       <c r="I123" s="34"/>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C128" s="28"/>
       <c r="D128" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E128" s="23">
         <v>2</v>
@@ -4121,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H128" s="36"/>
       <c r="I128" s="34"/>
@@ -4142,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="34"/>
@@ -4174,7 +4174,7 @@
         <v>185</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>9</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C135" s="28"/>
       <c r="D135" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E135" s="23">
         <v>1</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="C136" s="28"/>
       <c r="D136" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E136" s="23">
         <v>2</v>

--- a/autolist2.0.xlsx
+++ b/autolist2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17042C35-0E7E-4228-A71C-35CE148521D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A3449-C267-4B26-AD98-C555748148B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,8 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="2" spans="1:9" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" customFormat="1" hidden="1">
+    <row r="3" spans="1:9" customFormat="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="28"/>
       <c r="B4" s="28" t="s">
         <v>13</v>
@@ -1490,7 +1490,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="1:9" customFormat="1" hidden="1">
+    <row r="5" spans="1:9" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" hidden="1">
+    <row r="6" spans="1:9" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1534,7 +1534,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" hidden="1">
+    <row r="7" spans="1:9" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" hidden="1">
+    <row r="8" spans="1:9" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1578,7 +1578,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" customFormat="1" hidden="1">
+    <row r="9" spans="1:9" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1599,7 +1599,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" hidden="1">
+    <row r="10" spans="1:9" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1662,7 +1662,7 @@
       <c r="H12" s="36"/>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="30" hidden="1">
+    <row r="13" spans="1:9" customFormat="1" ht="30">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>29</v>
@@ -1683,7 +1683,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="33" hidden="1" customHeight="1">
+    <row r="14" spans="1:9" customFormat="1" ht="33" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" hidden="1">
+    <row r="15" spans="1:9" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -1727,7 +1727,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="28"/>
       <c r="B16" s="28" t="s">
         <v>36</v>
@@ -1748,7 +1748,7 @@
       <c r="H16" s="36"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:9" customFormat="1" hidden="1">
+    <row r="17" spans="1:9" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>37</v>
@@ -1832,7 +1832,7 @@
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:9" ht="29.25" customHeight="1">
+    <row r="21" spans="1:9" ht="29.25" hidden="1" customHeight="1">
       <c r="A21" s="28" t="s">
         <v>42</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="H22" s="36"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" hidden="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28" t="s">
         <v>45</v>
@@ -1897,7 +1897,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="30" hidden="1">
       <c r="A24" s="28"/>
       <c r="B24" s="28" t="s">
         <v>46</v>
@@ -1918,7 +1918,7 @@
       <c r="H24" s="36"/>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="30" hidden="1">
       <c r="A25" s="28"/>
       <c r="B25" s="28" t="s">
         <v>47</v>
@@ -1939,7 +1939,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" ht="30" hidden="1">
       <c r="A26" s="28"/>
       <c r="B26" s="28" t="s">
         <v>48</v>
@@ -1960,7 +1960,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" hidden="1">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -1981,7 +1981,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" hidden="1">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>50</v>
@@ -2044,7 +2044,7 @@
       <c r="H30" s="36"/>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1" ht="29.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" customFormat="1" hidden="1">
+    <row r="32" spans="1:9" customFormat="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>56</v>
@@ -2088,7 +2088,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="28"/>
       <c r="B33" s="28" t="s">
         <v>58</v>
@@ -2109,7 +2109,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9" customFormat="1" hidden="1">
+    <row r="34" spans="1:9" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>59</v>
@@ -2172,7 +2172,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="28"/>
       <c r="B37" s="28" t="s">
         <v>63</v>
@@ -2214,7 +2214,7 @@
       <c r="H38" s="36"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" customFormat="1" hidden="1">
+    <row r="40" spans="1:9" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>68</v>
@@ -2258,7 +2258,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="28"/>
       <c r="B41" s="28" t="s">
         <v>70</v>
@@ -2279,7 +2279,7 @@
       <c r="H41" s="36"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" customFormat="1" hidden="1">
+    <row r="42" spans="1:9" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>71</v>
@@ -2300,7 +2300,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28" t="s">
         <v>73</v>
@@ -2321,7 +2321,7 @@
       <c r="H43" s="36"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="28"/>
       <c r="B44" s="28" t="s">
         <v>74</v>
@@ -2342,7 +2342,7 @@
       <c r="H44" s="36"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="28"/>
       <c r="B45" s="28" t="s">
         <v>75</v>
@@ -2384,7 +2384,7 @@
       <c r="H46" s="36"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="28"/>
       <c r="B47" s="28" t="s">
         <v>77</v>
@@ -2405,7 +2405,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="28"/>
       <c r="B48" s="28" t="s">
         <v>78</v>
@@ -2489,7 +2489,7 @@
       <c r="H51" s="36"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="28"/>
       <c r="B52" s="28" t="s">
         <v>82</v>
@@ -2510,7 +2510,7 @@
       <c r="H52" s="36"/>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="28"/>
       <c r="B53" s="28" t="s">
         <v>83</v>
@@ -2552,7 +2552,7 @@
       <c r="H54" s="36"/>
       <c r="I54" s="34"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="28"/>
       <c r="B55" s="28" t="s">
         <v>85</v>
@@ -2573,7 +2573,7 @@
       <c r="H55" s="36"/>
       <c r="I55" s="34"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="28"/>
       <c r="B56" s="28" t="s">
         <v>86</v>
@@ -2594,7 +2594,7 @@
       <c r="H56" s="36"/>
       <c r="I56" s="34"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="28"/>
       <c r="B57" s="28" t="s">
         <v>87</v>
@@ -2636,7 +2636,7 @@
       <c r="H58" s="36"/>
       <c r="I58" s="34"/>
     </row>
-    <row r="59" spans="1:9" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" customFormat="1" hidden="1">
+    <row r="60" spans="1:9" customFormat="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -2680,7 +2680,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="28"/>
       <c r="B61" s="28" t="s">
         <v>94</v>
@@ -2701,7 +2701,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" hidden="1">
+    <row r="62" spans="1:9" customFormat="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>95</v>
@@ -2722,7 +2722,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="28"/>
       <c r="B63" s="28" t="s">
         <v>97</v>
@@ -2743,7 +2743,7 @@
       <c r="H63" s="36"/>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="28"/>
       <c r="B64" s="28" t="s">
         <v>98</v>
@@ -2833,7 +2833,7 @@
       <c r="H67" s="36"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="28"/>
       <c r="B68" s="28" t="s">
         <v>102</v>
@@ -2854,7 +2854,7 @@
       <c r="H68" s="36"/>
       <c r="I68" s="34"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="28"/>
       <c r="B69" s="28" t="s">
         <v>103</v>
@@ -2875,7 +2875,7 @@
       <c r="H69" s="36"/>
       <c r="I69" s="34"/>
     </row>
-    <row r="70" spans="1:9" ht="17.25" customHeight="1">
+    <row r="70" spans="1:9" ht="17.25" hidden="1" customHeight="1">
       <c r="A70" s="28" t="s">
         <v>104</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="H70" s="36"/>
       <c r="I70" s="34"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+    <row r="71" spans="1:9" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="28"/>
       <c r="B71" s="28" t="s">
         <v>106</v>
@@ -2919,7 +2919,7 @@
       <c r="H71" s="36"/>
       <c r="I71" s="34"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="28"/>
       <c r="B72" s="28" t="s">
         <v>107</v>
@@ -2940,7 +2940,7 @@
       <c r="H72" s="36"/>
       <c r="I72" s="34"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="73" spans="1:9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" hidden="1">
+    <row r="74" spans="1:9" customFormat="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>110</v>
@@ -2984,7 +2984,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" hidden="1">
+    <row r="75" spans="1:9" customFormat="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -3005,7 +3005,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" s="28"/>
       <c r="B76" s="28" t="s">
         <v>112</v>
@@ -3026,7 +3026,7 @@
       <c r="H76" s="36"/>
       <c r="I76" s="34"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>113</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="H79" s="36"/>
       <c r="I79" s="34"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>118</v>
@@ -3116,7 +3116,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>120</v>
@@ -3137,7 +3137,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>122</v>
@@ -3158,7 +3158,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>124</v>
@@ -3200,7 +3200,7 @@
       <c r="H84" s="36"/>
       <c r="I84" s="34"/>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1">
+    <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="28" t="s">
         <v>127</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="34"/>
     </row>
-    <row r="86" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>129</v>
@@ -3244,7 +3244,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1">
+    <row r="87" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="28" t="s">
         <v>131</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="H88" s="36"/>
       <c r="I88" s="34"/>
     </row>
-    <row r="89" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>134</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
         <v>136</v>
@@ -3332,7 +3332,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>137</v>
@@ -3374,7 +3374,7 @@
       <c r="H92" s="36"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:9" ht="15" customHeight="1">
       <c r="A93" s="28" t="s">
         <v>139</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="H93" s="36"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:9" ht="15" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
         <v>141</v>
@@ -3418,7 +3418,7 @@
       <c r="H94" s="36"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="95" spans="1:9" ht="15" customHeight="1">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
         <v>142</v>
@@ -3481,7 +3481,7 @@
       <c r="H97" s="36"/>
       <c r="I97" s="34"/>
     </row>
-    <row r="98" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:9" ht="15" customHeight="1">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
         <v>145</v>
@@ -3502,7 +3502,7 @@
       <c r="H98" s="36"/>
       <c r="I98" s="34"/>
     </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1">
+    <row r="99" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
         <v>146</v>
@@ -3544,7 +3544,7 @@
       <c r="H100" s="36"/>
       <c r="I100" s="34"/>
     </row>
-    <row r="101" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:9" ht="15" customHeight="1">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
         <v>148</v>
@@ -3653,7 +3653,7 @@
       <c r="H105" s="36"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>157</v>
@@ -3853,7 +3853,7 @@
       <c r="H115" s="36"/>
       <c r="I115" s="34"/>
     </row>
-    <row r="116" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:9" ht="15" customHeight="1">
       <c r="A116" s="28" t="s">
         <v>160</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="H116" s="36"/>
       <c r="I116" s="34"/>
     </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:9" ht="15" customHeight="1">
       <c r="A117" s="28"/>
       <c r="B117" s="28" t="s">
         <v>162</v>
@@ -3897,7 +3897,7 @@
       <c r="H117" s="36"/>
       <c r="I117" s="34"/>
     </row>
-    <row r="118" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>163</v>
@@ -3918,7 +3918,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>164</v>
@@ -3939,7 +3939,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:9">
       <c r="A120" s="28"/>
       <c r="B120" s="28" t="s">
         <v>165</v>
@@ -3960,7 +3960,7 @@
       <c r="H120" s="36"/>
       <c r="I120" s="34"/>
     </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:9">
       <c r="A121" s="5"/>
       <c r="B121" s="4" t="s">
         <v>166</v>
@@ -3981,7 +3981,7 @@
       <c r="H121" s="36"/>
       <c r="I121" s="34"/>
     </row>
-    <row r="122" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:9">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>167</v>
@@ -4002,7 +4002,7 @@
       <c r="H122" s="36"/>
       <c r="I122" s="34"/>
     </row>
-    <row r="123" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:9">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>168</v>
@@ -4023,7 +4023,7 @@
       <c r="H123" s="36"/>
       <c r="I123" s="34"/>
     </row>
-    <row r="124" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>169</v>
@@ -4065,7 +4065,7 @@
       <c r="H125" s="36"/>
       <c r="I125" s="34"/>
     </row>
-    <row r="126" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="13" t="s">
         <v>182</v>
@@ -4084,7 +4084,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>171</v>
@@ -4105,7 +4105,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1">
+    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="28"/>
       <c r="B128" s="28" t="s">
         <v>172</v>
@@ -4168,7 +4168,7 @@
       <c r="H130" s="36"/>
       <c r="I130" s="34"/>
     </row>
-    <row r="131" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>185</v>
@@ -4189,7 +4189,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>186</v>
@@ -4252,7 +4252,7 @@
       <c r="H134" s="36"/>
       <c r="I134" s="34"/>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1">
+    <row r="135" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="28"/>
       <c r="B135" s="28" t="s">
         <v>189</v>
@@ -4271,7 +4271,7 @@
       <c r="H135" s="36"/>
       <c r="I135" s="34"/>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1">
+    <row r="136" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="28"/>
       <c r="B136" s="28" t="s">
         <v>190</v>
@@ -4299,7 +4299,7 @@
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Planning"/>
+        <filter val="Completed"/>
       </filters>
     </filterColumn>
   </autoFilter>
